--- a/dags/files_pami/TeleSalud.xlsx
+++ b/dags/files_pami/TeleSalud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/TELESALUD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinicos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9577D8AD-6483-42EF-B95A-7670FB788DA8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF89F47A-31EA-491B-BC45-AD7EF5CFC353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
   </bookViews>
   <sheets>
     <sheet name="NivelServicio" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
   <si>
     <t>MES</t>
   </si>
@@ -91,39 +91,21 @@
     <t>Seguimiento</t>
   </si>
   <si>
-    <t>Sensibilización vacunación COVID</t>
-  </si>
-  <si>
-    <t>Post-COVID CUB</t>
-  </si>
-  <si>
     <t>Cercos Epidemilógicos CUB</t>
   </si>
   <si>
     <t>Renombramiento Cercos</t>
   </si>
   <si>
-    <t>Post-vacunación</t>
-  </si>
-  <si>
-    <t>Demanda inducida epsi-qf</t>
-  </si>
-  <si>
     <t>Cargue de reportes COVID - LIH</t>
   </si>
   <si>
-    <t>Demanda inducida espirometria</t>
-  </si>
-  <si>
     <t>Recepcion</t>
   </si>
   <si>
     <t>Determinantes sociales</t>
   </si>
   <si>
-    <t>Tabaquismo</t>
-  </si>
-  <si>
     <t>APOYO EPIDEMIOLOGIA  NACIONAL</t>
   </si>
   <si>
@@ -199,138 +181,27 @@
     <t>RECORDATORIO DE CITAS</t>
   </si>
   <si>
-    <t>auditoria anexo 2</t>
-  </si>
-  <si>
-    <t>Abuso fisico</t>
-  </si>
-  <si>
-    <t>Lumbago con ciatica</t>
-  </si>
-  <si>
-    <t>Blefaritis</t>
-  </si>
-  <si>
     <t>Lumbago no especificado</t>
   </si>
   <si>
     <t>Bronquitis aguda, no especificada</t>
   </si>
   <si>
-    <t>Mialgia</t>
-  </si>
-  <si>
-    <t>Cerumen impactado</t>
-  </si>
-  <si>
-    <t>Otras alopecias androgenas</t>
-  </si>
-  <si>
-    <t>Cuerpo extraño residual en tejido blando</t>
-  </si>
-  <si>
-    <t>Otras conjuntivitis</t>
-  </si>
-  <si>
-    <t>Dermatitis de contacto, forma no especificada, debida a otros productos quimicos</t>
-  </si>
-  <si>
-    <t>Otras enteritis virale</t>
-  </si>
-  <si>
-    <t>Estomatitis aftosa recurrente</t>
-  </si>
-  <si>
-    <t>Otras entesopatias del pie</t>
-  </si>
-  <si>
-    <t>Fractura de los huesos de otro(s) dedo(s) del pie</t>
-  </si>
-  <si>
     <t>Otras rinitis alergicas</t>
   </si>
   <si>
-    <t>Gota, no especificada</t>
-  </si>
-  <si>
-    <t>Otro dolor cronico</t>
-  </si>
-  <si>
-    <t>Historia familiar de tumor maligno de mama</t>
-  </si>
-  <si>
-    <t>Otros desgarros (no traumaticos) del musculo</t>
-  </si>
-  <si>
-    <t>Tumor maligno de la mama, parte no especificada</t>
-  </si>
-  <si>
     <t>Otros dolores en el pecho</t>
   </si>
   <si>
-    <t>Bronconeumonia, no especificada</t>
-  </si>
-  <si>
-    <t>Otros episodios depresivos</t>
-  </si>
-  <si>
-    <t>Colitis y gastroenteritis no infecciosas, no especificadas</t>
-  </si>
-  <si>
-    <t>Otros trastornos especificados del aparato circulatorio en enfermedades clasificadas en otra parte</t>
-  </si>
-  <si>
-    <t>Dolor abdominal localizado en parte superior</t>
-  </si>
-  <si>
-    <t>Otros traumatismos multiples del abdomen, de la region lumbosacra y de la pelvis</t>
-  </si>
-  <si>
-    <t>Golpe contra o golpeado por otros objetos: lugar no especificado</t>
-  </si>
-  <si>
     <t>Otros vertigos perifericos</t>
   </si>
   <si>
-    <t>Vaginitis aguda</t>
-  </si>
-  <si>
-    <t>Sindrome del colon irritable con diarrea</t>
-  </si>
-  <si>
     <t>Cefalea debida a tension</t>
   </si>
   <si>
-    <t>Sindrome del colon irritable sin diarrea</t>
-  </si>
-  <si>
-    <t>Examen medico genera</t>
-  </si>
-  <si>
-    <t>Sinusitis aguda, no especificada</t>
-  </si>
-  <si>
-    <t>Trastorno muscular, no especificado</t>
-  </si>
-  <si>
     <t>Tos</t>
   </si>
   <si>
-    <t>Hemorroides no especificadas, sin complicacion</t>
-  </si>
-  <si>
-    <t>Traqueitis aguda</t>
-  </si>
-  <si>
-    <t>Dermatitis de contacto por irritantes, debida a otros agentes</t>
-  </si>
-  <si>
-    <t>Trastorno de la uña, no especificado</t>
-  </si>
-  <si>
-    <t>Infeccion bacteriana, no especificada</t>
-  </si>
-  <si>
     <t>Consulta para repeticion de receta</t>
   </si>
   <si>
@@ -340,54 +211,27 @@
     <t>Hipertension esencial (primaria)</t>
   </si>
   <si>
-    <t>Asma, no especificada</t>
-  </si>
-  <si>
-    <t>Hipotiroidismo, no especificado</t>
-  </si>
-  <si>
-    <t>Otras migrañas</t>
-  </si>
-  <si>
     <t>Examen medico general</t>
   </si>
   <si>
-    <t>Sincope y colapso</t>
-  </si>
-  <si>
     <t>Otras colitis y gastroenteritis no infecciosas especificadas</t>
   </si>
   <si>
-    <t>Calambres y espasmos</t>
-  </si>
-  <si>
     <t>Otros estados postquirurgicos especificados</t>
   </si>
   <si>
-    <t>Incidente durante otras atenciones medicas y quirurgicas</t>
-  </si>
-  <si>
     <t>Nausea y vomito</t>
   </si>
   <si>
     <t>Dolor en miembro</t>
   </si>
   <si>
-    <t>Amigdalitis aguda, no especificada</t>
-  </si>
-  <si>
     <t>Cefalea</t>
   </si>
   <si>
     <t>Conjuntivitis mucopurulenta</t>
   </si>
   <si>
-    <t>Esguinces y torceduras del tobillo</t>
-  </si>
-  <si>
-    <t>Leptospirosis, no especificada</t>
-  </si>
-  <si>
     <t>Infeccion de vias urinarias, sitio no especificado</t>
   </si>
   <si>
@@ -400,22 +244,145 @@
     <t>Diarrea y gastroenteritis de presunto origen infeccioso</t>
   </si>
   <si>
-    <t>Rinofaringitis aguda (resfriado comun)</t>
-  </si>
-  <si>
     <t>Otros examenes para fines administrativos</t>
   </si>
   <si>
     <t>Enfermedad respiratoria aguda por posible coronavirus (COVID-19)</t>
   </si>
   <si>
-    <t>(en blanco)</t>
-  </si>
-  <si>
     <t>Historia personal de incumplimiento del regimen o tratamiento medico</t>
   </si>
   <si>
     <t>Infeccion viral, no especificada</t>
+  </si>
+  <si>
+    <t>Acne, no especificado</t>
+  </si>
+  <si>
+    <t>Historia personal de otro trauma fisico</t>
+  </si>
+  <si>
+    <t>Arritmia cardiaca, no especificada</t>
+  </si>
+  <si>
+    <t>Tumefaccion, masa o prominencia localizada en el cuello</t>
+  </si>
+  <si>
+    <t>Traumatismos superficiales multiples de la muñeca y de la mano</t>
+  </si>
+  <si>
+    <t>Infeccion local de la piel y del tejido subcutaneo, no especificada</t>
+  </si>
+  <si>
+    <t>Cistitis agudas</t>
+  </si>
+  <si>
+    <t>Lesion de sitios contiguos de la vulva</t>
+  </si>
+  <si>
+    <t>Contractura muscular</t>
+  </si>
+  <si>
+    <t>Dermatitis, no especificada</t>
+  </si>
+  <si>
+    <t>Micosis superficial, sin otra especificacion</t>
+  </si>
+  <si>
+    <t>Dismenorrea, no especificada</t>
+  </si>
+  <si>
+    <t>Neumonia bacteriana, no especificada</t>
+  </si>
+  <si>
+    <t>Enfermedad de transmision sexual no especificada</t>
+  </si>
+  <si>
+    <t>Otras atenciones especificadas para la anticoncepcion</t>
+  </si>
+  <si>
+    <t>Epistaxis</t>
+  </si>
+  <si>
+    <t>Fiebre, no especificada</t>
+  </si>
+  <si>
+    <t>Fractura del torax oseo, parte no especificada</t>
+  </si>
+  <si>
+    <t>Otras infecciones virales de sitio no especificado</t>
+  </si>
+  <si>
+    <t>Afecciones no especificadas asociadas con los organos genitales femeninos y el ciclo menstrual</t>
+  </si>
+  <si>
+    <t>Otras micosis superficiales especificadas</t>
+  </si>
+  <si>
+    <t>Catarata senil, no especificada</t>
+  </si>
+  <si>
+    <t>Otras osteoporosis, sin fractura patologica</t>
+  </si>
+  <si>
+    <t>Contacto con y exposicion a enfermedades infecciosas con un modo de transmision predominantemente sexual</t>
+  </si>
+  <si>
+    <t>Diarrea funcional</t>
+  </si>
+  <si>
+    <t>Otras sinusitis cronicas</t>
+  </si>
+  <si>
+    <t>Enfermedad del reflujo gastroesofagico sin esofagitis</t>
+  </si>
+  <si>
+    <t>Flatulencia y afecciones afines</t>
+  </si>
+  <si>
+    <t>Alergia no especificada</t>
+  </si>
+  <si>
+    <t>Dermatitis del pañal</t>
+  </si>
+  <si>
+    <t>Problemas relacionados con otros hechos estresantes que afectan a la familia y al hogar</t>
+  </si>
+  <si>
+    <t>Resultados anormales en estudios funcionales de la tiroides</t>
+  </si>
+  <si>
+    <t>Celulitis de la cara</t>
+  </si>
+  <si>
+    <t>Secuelas de otras enfermedades infecciosas y parasitarias especificadas</t>
+  </si>
+  <si>
+    <t>Hemorroides externas sin complicacion</t>
+  </si>
+  <si>
+    <t>Supervision del uso de drogas anticonceptivas</t>
+  </si>
+  <si>
+    <t>Dolor en articulacion</t>
+  </si>
+  <si>
+    <t>Infeccion debida a el virus del herpes, no especificada</t>
+  </si>
+  <si>
+    <t>Otros dolores abdominales y los no especificados</t>
+  </si>
+  <si>
+    <t>Amigdalitis estreptococica</t>
+  </si>
+  <si>
+    <t>Faringitis aguda, no especificada</t>
+  </si>
+  <si>
+    <t>Procedimiento no realizado por razon no especificada</t>
+  </si>
+  <si>
+    <t>Revsion anexo 2</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1472,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,13 +1494,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C2">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1543,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B3CEF-2446-471D-B777-AD2F1CBAD8AA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,35 +1534,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>544</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>207</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>8184</v>
+        <v>6281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>44682</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>44713</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>44743</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>44774</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>44805</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>44835</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>5953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>44866</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>44896</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>4749</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1663,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,30 +1689,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1725,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,24 +1748,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C2">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>5980</v>
+        <v>10522</v>
       </c>
     </row>
   </sheetData>
@@ -1720,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F266A7-E0A6-4DFC-8293-13C6CF69AC7D}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,208 +1801,142 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>1530</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
-        <v>28623</v>
+        <v>5987</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>7650</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6">
-        <v>35280</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>25080</v>
+        <v>9946</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>7450</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>565</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C12">
-        <v>188560</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
+      <c r="A13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>19200</v>
-      </c>
+      <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>600</v>
-      </c>
+      <c r="A15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1958,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F91F99-8346-4ED2-8953-1026A1CE3A8D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,21 +1958,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B2">
-        <v>7609</v>
+        <v>6367</v>
       </c>
       <c r="C2">
-        <v>246</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +1985,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,24 +1996,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B2">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2040,7 +2029,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,156 +2050,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>116</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>487</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>1794</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>1980</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>924</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <v>880</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>1371</v>
+        <v>935</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2262,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F647B8A-3E71-4CDC-B280-1882725A6ACD}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A73"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,21 +2266,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2299,10 +2288,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2310,10 +2299,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2321,10 +2310,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2332,10 +2321,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2343,10 +2332,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2354,10 +2343,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2365,10 +2354,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2376,10 +2365,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2387,10 +2376,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2398,10 +2387,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2409,10 +2398,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2420,10 +2409,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2431,10 +2420,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2442,10 +2431,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2453,10 +2442,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2464,10 +2453,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2475,10 +2464,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2486,10 +2475,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2497,10 +2486,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2508,10 +2497,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2519,10 +2508,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2530,10 +2519,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2541,10 +2530,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2552,10 +2541,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2563,10 +2552,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2574,10 +2563,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2585,10 +2574,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2596,10 +2585,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2607,10 +2596,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2618,10 +2607,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2629,10 +2618,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2640,10 +2629,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2651,10 +2640,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2662,10 +2651,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2673,10 +2662,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2684,10 +2673,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2695,10 +2684,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2706,10 +2695,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2717,10 +2706,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2728,10 +2717,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2739,10 +2728,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2750,87 +2739,87 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -2838,10 +2827,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2849,10 +2838,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -2860,10 +2849,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -2871,21 +2860,21 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -2893,10 +2882,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -2904,10 +2893,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -2915,167 +2904,112 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B60" t="s">
         <v>110</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C68">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B69" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B70" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B71" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B72" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B73" t="s">
-        <v>123</v>
-      </c>
-      <c r="C73">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3264,13 +3198,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B27CD3D2-9737-49BA-96F1-00FE9FBB4AA3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02D2D67-8E7A-4630-8A45-BA5520AE3102}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3749DF-5BFD-47F0-814B-E456C76C8C9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{134486A4-FF00-4B07-A098-F779933CBD76}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DFDE185-D9C1-43B1-B186-26E4FC24CC61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3A0564F-6F06-4C62-8721-5D942580B6E4}"/>
 </file>
--- a/dags/files_pami/TeleSalud.xlsx
+++ b/dags/files_pami/TeleSalud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clinicos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/TELESALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF89F47A-31EA-491B-BC45-AD7EF5CFC353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79C4B083-8BED-4AB8-A0FA-EDA95E4C503D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
   </bookViews>
   <sheets>
     <sheet name="NivelServicio" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="138">
   <si>
     <t>MES</t>
   </si>
@@ -88,21 +88,6 @@
     <t xml:space="preserve">INGRESOS </t>
   </si>
   <si>
-    <t>Seguimiento</t>
-  </si>
-  <si>
-    <t>Cercos Epidemilógicos CUB</t>
-  </si>
-  <si>
-    <t>Renombramiento Cercos</t>
-  </si>
-  <si>
-    <t>Cargue de reportes COVID - LIH</t>
-  </si>
-  <si>
-    <t>Recepcion</t>
-  </si>
-  <si>
     <t>Determinantes sociales</t>
   </si>
   <si>
@@ -175,12 +160,6 @@
     <t>ATENCIONES</t>
   </si>
   <si>
-    <t xml:space="preserve">demanda inducida vacunacion </t>
-  </si>
-  <si>
-    <t>RECORDATORIO DE CITAS</t>
-  </si>
-  <si>
     <t>Lumbago no especificado</t>
   </si>
   <si>
@@ -190,9 +169,6 @@
     <t>Otras rinitis alergicas</t>
   </si>
   <si>
-    <t>Otros dolores en el pecho</t>
-  </si>
-  <si>
     <t>Otros vertigos perifericos</t>
   </si>
   <si>
@@ -214,9 +190,6 @@
     <t>Examen medico general</t>
   </si>
   <si>
-    <t>Otras colitis y gastroenteritis no infecciosas especificadas</t>
-  </si>
-  <si>
     <t>Otros estados postquirurgicos especificados</t>
   </si>
   <si>
@@ -256,133 +229,235 @@
     <t>Infeccion viral, no especificada</t>
   </si>
   <si>
-    <t>Acne, no especificado</t>
-  </si>
-  <si>
-    <t>Historia personal de otro trauma fisico</t>
-  </si>
-  <si>
-    <t>Arritmia cardiaca, no especificada</t>
-  </si>
-  <si>
-    <t>Tumefaccion, masa o prominencia localizada en el cuello</t>
-  </si>
-  <si>
-    <t>Traumatismos superficiales multiples de la muñeca y de la mano</t>
-  </si>
-  <si>
-    <t>Infeccion local de la piel y del tejido subcutaneo, no especificada</t>
-  </si>
-  <si>
     <t>Cistitis agudas</t>
   </si>
   <si>
-    <t>Lesion de sitios contiguos de la vulva</t>
-  </si>
-  <si>
-    <t>Contractura muscular</t>
-  </si>
-  <si>
-    <t>Dermatitis, no especificada</t>
-  </si>
-  <si>
-    <t>Micosis superficial, sin otra especificacion</t>
-  </si>
-  <si>
     <t>Dismenorrea, no especificada</t>
   </si>
   <si>
-    <t>Neumonia bacteriana, no especificada</t>
-  </si>
-  <si>
-    <t>Enfermedad de transmision sexual no especificada</t>
-  </si>
-  <si>
-    <t>Otras atenciones especificadas para la anticoncepcion</t>
-  </si>
-  <si>
     <t>Epistaxis</t>
   </si>
   <si>
     <t>Fiebre, no especificada</t>
   </si>
   <si>
-    <t>Fractura del torax oseo, parte no especificada</t>
-  </si>
-  <si>
-    <t>Otras infecciones virales de sitio no especificado</t>
-  </si>
-  <si>
-    <t>Afecciones no especificadas asociadas con los organos genitales femeninos y el ciclo menstrual</t>
-  </si>
-  <si>
-    <t>Otras micosis superficiales especificadas</t>
-  </si>
-  <si>
-    <t>Catarata senil, no especificada</t>
-  </si>
-  <si>
-    <t>Otras osteoporosis, sin fractura patologica</t>
-  </si>
-  <si>
-    <t>Contacto con y exposicion a enfermedades infecciosas con un modo de transmision predominantemente sexual</t>
-  </si>
-  <si>
     <t>Diarrea funcional</t>
   </si>
   <si>
-    <t>Otras sinusitis cronicas</t>
-  </si>
-  <si>
-    <t>Enfermedad del reflujo gastroesofagico sin esofagitis</t>
-  </si>
-  <si>
-    <t>Flatulencia y afecciones afines</t>
-  </si>
-  <si>
     <t>Alergia no especificada</t>
   </si>
   <si>
     <t>Dermatitis del pañal</t>
   </si>
   <si>
-    <t>Problemas relacionados con otros hechos estresantes que afectan a la familia y al hogar</t>
-  </si>
-  <si>
-    <t>Resultados anormales en estudios funcionales de la tiroides</t>
-  </si>
-  <si>
-    <t>Celulitis de la cara</t>
-  </si>
-  <si>
-    <t>Secuelas de otras enfermedades infecciosas y parasitarias especificadas</t>
-  </si>
-  <si>
-    <t>Hemorroides externas sin complicacion</t>
-  </si>
-  <si>
-    <t>Supervision del uso de drogas anticonceptivas</t>
-  </si>
-  <si>
-    <t>Dolor en articulacion</t>
-  </si>
-  <si>
-    <t>Infeccion debida a el virus del herpes, no especificada</t>
-  </si>
-  <si>
     <t>Otros dolores abdominales y los no especificados</t>
   </si>
   <si>
-    <t>Amigdalitis estreptococica</t>
-  </si>
-  <si>
     <t>Faringitis aguda, no especificada</t>
   </si>
   <si>
     <t>Procedimiento no realizado por razon no especificada</t>
   </si>
   <si>
-    <t>Revsion anexo 2</t>
+    <t>Absceso periapical sin fistula</t>
+  </si>
+  <si>
+    <t>Amigdalitis aguda, no especificada</t>
+  </si>
+  <si>
+    <t>Asma, no especificada</t>
+  </si>
+  <si>
+    <t>Calculo del riñon con calculo del ureter</t>
+  </si>
+  <si>
+    <t>Celulitis de otras partes de los miembros</t>
+  </si>
+  <si>
+    <t>Cerumen impactado</t>
+  </si>
+  <si>
+    <t>Cervicalgia</t>
+  </si>
+  <si>
+    <t>Constipacion</t>
+  </si>
+  <si>
+    <t>Contusion de dedo(s) de la mano, con daño de la(s) uña(s)</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus insulinodependiente sin mencion de complicacion</t>
+  </si>
+  <si>
+    <t>Dolor abdominal localizado en parte superior</t>
+  </si>
+  <si>
+    <t>Enfermedad de parkinson</t>
+  </si>
+  <si>
+    <t>Enfermedad de periodonto, no especificada</t>
+  </si>
+  <si>
+    <t>Enfermedad respiratoria aguda debido al nuevo coronavirus (COVID-19)</t>
+  </si>
+  <si>
+    <t>Entesopatia del miembro inferior, no especificada</t>
+  </si>
+  <si>
+    <t>Epicondilitis lateral</t>
+  </si>
+  <si>
+    <t>Esguinces y torceduras que comprometen el ligamento cruzado (anterior) (posterior) de la rodilla</t>
+  </si>
+  <si>
+    <t>Extension de certificado medico</t>
+  </si>
+  <si>
+    <t>Gastritis, no especificada</t>
+  </si>
+  <si>
+    <t>Hemorroides no especificadas, sin complicacion</t>
+  </si>
+  <si>
+    <t>Herida de miembro superior, nivel no especificado</t>
+  </si>
+  <si>
+    <t>Herpes zoster sin complicaciones</t>
+  </si>
+  <si>
+    <t>Hiperlipidemia no especificada</t>
+  </si>
+  <si>
+    <t>Hiperplasia de la prostata</t>
+  </si>
+  <si>
+    <t>Hipotiroidismo, no especificado</t>
+  </si>
+  <si>
+    <t>Historia personal de uso (presente) de otros medicamentos por largo tiempo</t>
+  </si>
+  <si>
+    <t>Incidente durante otras atenciones medicas y quirurgicas</t>
+  </si>
+  <si>
+    <t>Laringitis aguda</t>
+  </si>
+  <si>
+    <t>Laringofaringitis aguda</t>
+  </si>
+  <si>
+    <t>Lectura elevada de la presion sanguinea, sin diagnostico de hipertension</t>
+  </si>
+  <si>
+    <t>Masa no especificada en la mama</t>
+  </si>
+  <si>
+    <t>Menstruacion irregular, no especificada</t>
+  </si>
+  <si>
+    <t>Mialgia</t>
+  </si>
+  <si>
+    <t>Neuralgia y neuritis, no especificadas</t>
+  </si>
+  <si>
+    <t>Orzuelo y otras inflamaciones profundas del parpado</t>
+  </si>
+  <si>
+    <t>Otalgia</t>
+  </si>
+  <si>
+    <t>Otitis media aguda serosa</t>
+  </si>
+  <si>
+    <t>Otra hiperlipidemia</t>
+  </si>
+  <si>
+    <t>Otra otitis media aguda, no supurativa</t>
+  </si>
+  <si>
+    <t>Otras epilepsias</t>
+  </si>
+  <si>
+    <t>Otras formas de estomatitis</t>
+  </si>
+  <si>
+    <t>Otras gastritis</t>
+  </si>
+  <si>
+    <t>Otras migrañas</t>
+  </si>
+  <si>
+    <t>Otros trastornos especificos de la personalidad</t>
+  </si>
+  <si>
+    <t>Polipo del tracto genital femenino, no especificado</t>
+  </si>
+  <si>
+    <t>Procedimiento no realizado por decision del paciente, por otras razones y las no especificadas</t>
+  </si>
+  <si>
+    <t>Rinofaringitis aguda (resfriado comun)</t>
+  </si>
+  <si>
+    <t>Rosacea, no especificada</t>
+  </si>
+  <si>
+    <t>Secuelas de luxacion, torcedura y esguince de miembro superior</t>
+  </si>
+  <si>
+    <t>Sindrome de la articulacion condrocostal [tietze]</t>
+  </si>
+  <si>
+    <t>Sindrome del colon irritable sin diarrea</t>
+  </si>
+  <si>
+    <t>Sindrome del tunel carpiano</t>
+  </si>
+  <si>
+    <t>Trastorno del ojo y sus anexos, no especificado</t>
+  </si>
+  <si>
+    <t>Traumatismo no especificado de la cadera y del muslo</t>
+  </si>
+  <si>
+    <t>Traumatismo superficial de otras partes de la cabeza</t>
+  </si>
+  <si>
+    <t>Uretritis no especificada</t>
+  </si>
+  <si>
+    <t>Urticaria alergica</t>
+  </si>
+  <si>
+    <t>Urticaria, no especificada</t>
+  </si>
+  <si>
+    <t>Vaginitis subaguda y cronica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensibilización Vacunación 3a y 4a  dosis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcaciones fallidas en sensibilizacion </t>
+  </si>
+  <si>
+    <t>Cercos Epidemiológicos</t>
+  </si>
+  <si>
+    <t>renombre de cercos</t>
+  </si>
+  <si>
+    <t>Seguimientos Post COVID</t>
+  </si>
+  <si>
+    <t>Seguimientos COVID-19</t>
+  </si>
+  <si>
+    <t>Demanda Inducida Gestión del Riesgo</t>
+  </si>
+  <si>
+    <t>Cargue de reportes negativos lih</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1547,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,13 +1569,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B2">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="C2">
-        <v>141</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1510,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B3CEF-2446-471D-B777-AD2F1CBAD8AA}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,123 +1609,167 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45017</v>
+        <v>44927</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>151</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45017</v>
+        <v>44927</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>271</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45017</v>
+        <v>44927</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>6281</v>
+        <v>6266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>44682</v>
+        <v>44958</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>1284</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>44713</v>
+        <v>44958</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1954</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>44743</v>
+        <v>44958</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>2031</v>
+        <v>5927</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>44774</v>
+        <v>44986</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3733</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>44805</v>
+        <v>44986</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5022</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>44835</v>
+        <v>44986</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5953</v>
+        <v>8184</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>44866</v>
+        <v>45017</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>5255</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44896</v>
+        <v>45017</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>45017</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
-        <v>4749</v>
+      <c r="C13">
+        <v>6281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>9101</v>
       </c>
     </row>
   </sheetData>
@@ -1689,30 +1808,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1725,7 +1844,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,24 +1867,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C2">
-        <v>141</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>10522</v>
+        <v>8527</v>
       </c>
     </row>
   </sheetData>
@@ -1775,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F266A7-E0A6-4DFC-8293-13C6CF69AC7D}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,123 +1920,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>141</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="C3">
-        <v>5987</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="C7">
-        <v>9946</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C8">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>1543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C12">
-        <v>4608</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1934,9 +2053,6 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1945,9 +2061,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F91F99-8346-4ED2-8953-1026A1CE3A8D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1958,21 +2074,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B2">
+        <v>7700</v>
+      </c>
+      <c r="C2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>45017</v>
       </c>
-      <c r="B2">
-        <v>6367</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
+      <c r="B3">
+        <v>6300</v>
+      </c>
+      <c r="C3">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1996,24 +2123,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2029,7 +2156,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,156 +2177,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>432</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>1562</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>1596</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>735</v>
+        <v>994</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>763</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>181</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>935</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2251,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F647B8A-3E71-4CDC-B280-1882725A6ACD}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,21 +2393,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2288,21 +2415,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2310,10 +2437,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2321,18 +2448,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -2343,10 +2470,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2354,18 +2481,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -2376,7 +2503,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -2387,7 +2514,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -2398,32 +2525,32 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2431,21 +2558,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2453,10 +2580,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2464,10 +2591,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2475,32 +2602,32 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2508,21 +2635,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2530,21 +2657,21 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2552,10 +2679,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2563,10 +2690,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2574,21 +2701,21 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2596,10 +2723,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2607,10 +2734,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2618,10 +2745,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2629,21 +2756,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2651,21 +2778,21 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2673,10 +2800,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2684,10 +2811,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2695,10 +2822,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2706,21 +2833,21 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2728,10 +2855,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2739,21 +2866,21 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2761,21 +2888,21 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2783,233 +2910,519 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B71" t="s">
         <v>55</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B76" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B88" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B89" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B90" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B91" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B92" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B93" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3191,20 +3604,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02D2D67-8E7A-4630-8A45-BA5520AE3102}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F6E2CCB-1CE4-48FB-AB77-7BFACBDCA807}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{134486A4-FF00-4B07-A098-F779933CBD76}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3A0564F-6F06-4C62-8721-5D942580B6E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2786C11E-4E07-4F00-8439-2D12527E8B67}"/>
 </file>
--- a/dags/files_pami/TeleSalud.xlsx
+++ b/dags/files_pami/TeleSalud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/TELESALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79C4B083-8BED-4AB8-A0FA-EDA95E4C503D}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A708F5AC-363F-4C4C-A78E-B6583CA9CECD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
   </bookViews>
   <sheets>
     <sheet name="NivelServicio" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="143">
   <si>
     <t>MES</t>
   </si>
@@ -106,9 +106,6 @@
     <t xml:space="preserve">FECHA </t>
   </si>
   <si>
-    <t>NUMERO  DE PACINETES  ATRENDIDOS</t>
-  </si>
-  <si>
     <t>NUMERO DE AMBULANCIAS SOLICITADAS</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>Lumbago no especificado</t>
   </si>
   <si>
-    <t>Bronquitis aguda, no especificada</t>
-  </si>
-  <si>
     <t>Otras rinitis alergicas</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>Otros estados postquirurgicos especificados</t>
   </si>
   <si>
-    <t>Nausea y vomito</t>
-  </si>
-  <si>
     <t>Dolor en miembro</t>
   </si>
   <si>
@@ -223,21 +214,12 @@
     <t>Enfermedad respiratoria aguda por posible coronavirus (COVID-19)</t>
   </si>
   <si>
-    <t>Historia personal de incumplimiento del regimen o tratamiento medico</t>
-  </si>
-  <si>
     <t>Infeccion viral, no especificada</t>
   </si>
   <si>
     <t>Cistitis agudas</t>
   </si>
   <si>
-    <t>Dismenorrea, no especificada</t>
-  </si>
-  <si>
-    <t>Epistaxis</t>
-  </si>
-  <si>
     <t>Fiebre, no especificada</t>
   </si>
   <si>
@@ -247,195 +229,57 @@
     <t>Alergia no especificada</t>
   </si>
   <si>
-    <t>Dermatitis del pañal</t>
-  </si>
-  <si>
-    <t>Otros dolores abdominales y los no especificados</t>
-  </si>
-  <si>
-    <t>Faringitis aguda, no especificada</t>
-  </si>
-  <si>
-    <t>Procedimiento no realizado por razon no especificada</t>
-  </si>
-  <si>
-    <t>Absceso periapical sin fistula</t>
-  </si>
-  <si>
     <t>Amigdalitis aguda, no especificada</t>
   </si>
   <si>
-    <t>Asma, no especificada</t>
-  </si>
-  <si>
-    <t>Calculo del riñon con calculo del ureter</t>
-  </si>
-  <si>
-    <t>Celulitis de otras partes de los miembros</t>
-  </si>
-  <si>
-    <t>Cerumen impactado</t>
-  </si>
-  <si>
     <t>Cervicalgia</t>
   </si>
   <si>
-    <t>Constipacion</t>
-  </si>
-  <si>
-    <t>Contusion de dedo(s) de la mano, con daño de la(s) uña(s)</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus insulinodependiente sin mencion de complicacion</t>
-  </si>
-  <si>
     <t>Dolor abdominal localizado en parte superior</t>
   </si>
   <si>
-    <t>Enfermedad de parkinson</t>
-  </si>
-  <si>
-    <t>Enfermedad de periodonto, no especificada</t>
-  </si>
-  <si>
     <t>Enfermedad respiratoria aguda debido al nuevo coronavirus (COVID-19)</t>
   </si>
   <si>
-    <t>Entesopatia del miembro inferior, no especificada</t>
-  </si>
-  <si>
-    <t>Epicondilitis lateral</t>
-  </si>
-  <si>
-    <t>Esguinces y torceduras que comprometen el ligamento cruzado (anterior) (posterior) de la rodilla</t>
-  </si>
-  <si>
     <t>Extension de certificado medico</t>
   </si>
   <si>
     <t>Gastritis, no especificada</t>
   </si>
   <si>
-    <t>Hemorroides no especificadas, sin complicacion</t>
-  </si>
-  <si>
-    <t>Herida de miembro superior, nivel no especificado</t>
-  </si>
-  <si>
-    <t>Herpes zoster sin complicaciones</t>
-  </si>
-  <si>
-    <t>Hiperlipidemia no especificada</t>
-  </si>
-  <si>
-    <t>Hiperplasia de la prostata</t>
-  </si>
-  <si>
-    <t>Hipotiroidismo, no especificado</t>
-  </si>
-  <si>
-    <t>Historia personal de uso (presente) de otros medicamentos por largo tiempo</t>
-  </si>
-  <si>
     <t>Incidente durante otras atenciones medicas y quirurgicas</t>
   </si>
   <si>
-    <t>Laringitis aguda</t>
-  </si>
-  <si>
-    <t>Laringofaringitis aguda</t>
-  </si>
-  <si>
     <t>Lectura elevada de la presion sanguinea, sin diagnostico de hipertension</t>
   </si>
   <si>
     <t>Masa no especificada en la mama</t>
   </si>
   <si>
-    <t>Menstruacion irregular, no especificada</t>
-  </si>
-  <si>
-    <t>Mialgia</t>
-  </si>
-  <si>
-    <t>Neuralgia y neuritis, no especificadas</t>
-  </si>
-  <si>
     <t>Orzuelo y otras inflamaciones profundas del parpado</t>
   </si>
   <si>
     <t>Otalgia</t>
   </si>
   <si>
-    <t>Otitis media aguda serosa</t>
-  </si>
-  <si>
     <t>Otra hiperlipidemia</t>
   </si>
   <si>
-    <t>Otra otitis media aguda, no supurativa</t>
-  </si>
-  <si>
-    <t>Otras epilepsias</t>
-  </si>
-  <si>
-    <t>Otras formas de estomatitis</t>
-  </si>
-  <si>
     <t>Otras gastritis</t>
   </si>
   <si>
-    <t>Otras migrañas</t>
-  </si>
-  <si>
     <t>Otros trastornos especificos de la personalidad</t>
   </si>
   <si>
-    <t>Polipo del tracto genital femenino, no especificado</t>
-  </si>
-  <si>
-    <t>Procedimiento no realizado por decision del paciente, por otras razones y las no especificadas</t>
-  </si>
-  <si>
     <t>Rinofaringitis aguda (resfriado comun)</t>
   </si>
   <si>
-    <t>Rosacea, no especificada</t>
-  </si>
-  <si>
-    <t>Secuelas de luxacion, torcedura y esguince de miembro superior</t>
-  </si>
-  <si>
-    <t>Sindrome de la articulacion condrocostal [tietze]</t>
-  </si>
-  <si>
     <t>Sindrome del colon irritable sin diarrea</t>
   </si>
   <si>
-    <t>Sindrome del tunel carpiano</t>
-  </si>
-  <si>
-    <t>Trastorno del ojo y sus anexos, no especificado</t>
-  </si>
-  <si>
-    <t>Traumatismo no especificado de la cadera y del muslo</t>
-  </si>
-  <si>
-    <t>Traumatismo superficial de otras partes de la cabeza</t>
-  </si>
-  <si>
-    <t>Uretritis no especificada</t>
-  </si>
-  <si>
     <t>Urticaria alergica</t>
   </si>
   <si>
-    <t>Urticaria, no especificada</t>
-  </si>
-  <si>
-    <t>Vaginitis subaguda y cronica</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sensibilización Vacunación 3a y 4a  dosis </t>
   </si>
   <si>
@@ -458,6 +302,177 @@
   </si>
   <si>
     <t>Cargue de reportes negativos lih</t>
+  </si>
+  <si>
+    <t>Total de atenciones telemedicina interactiva (Apoyo terapeutico)</t>
+  </si>
+  <si>
+    <t>Total de atenciones telemedicina interactiva especializada</t>
+  </si>
+  <si>
+    <t>Total atenciones tele-experticia sincrónica y asincrónica</t>
+  </si>
+  <si>
+    <t>Recepcion de llamadas</t>
+  </si>
+  <si>
+    <t>NUMERO  DE PACINETES  ATENDIDOS</t>
+  </si>
+  <si>
+    <t>Historia personal de alergia, no debida a drogas ni a sustancias biologicas</t>
+  </si>
+  <si>
+    <t>Historia personal de enfermedades del sistema circulatorio</t>
+  </si>
+  <si>
+    <t>Acne, no especificado</t>
+  </si>
+  <si>
+    <t>Historia personal de otros tumores malignos del tejido linfoide, hematopoyetico y tejidos relacionados</t>
+  </si>
+  <si>
+    <t>Asma, no especificad</t>
+  </si>
+  <si>
+    <t>Historia personal de tumor maligno de organos genitales</t>
+  </si>
+  <si>
+    <t>Incontinencia fecal</t>
+  </si>
+  <si>
+    <t>Consulta para atencion y supervision de la salud de otros niños o lactantes sanos</t>
+  </si>
+  <si>
+    <t>Mareo y desvanecimiento</t>
+  </si>
+  <si>
+    <t>Edema localizado</t>
+  </si>
+  <si>
+    <t>Enfermedad cerebrovascular, no especificada</t>
+  </si>
+  <si>
+    <t>Enfermedad del reflujo gastroesofagico sin esofagitis</t>
+  </si>
+  <si>
+    <t>Osteoporosis en otras enfermedades clasificadas en otra parte</t>
+  </si>
+  <si>
+    <t>Otitis externa, sin otra especificacion</t>
+  </si>
+  <si>
+    <t>Halitosis</t>
+  </si>
+  <si>
+    <t>Hallazgos anormales en muestras tomadas de otros organos, sistemas y tejidos: hallazgos citologicos anormales, frotis anormal de papanicolaou</t>
+  </si>
+  <si>
+    <t>Otras afecciones especificadas asociadas con los organos genitales femeninos y el ciclo menstrual</t>
+  </si>
+  <si>
+    <t>Hemorragia vaginal y uterina anormal, no especificada</t>
+  </si>
+  <si>
+    <t>Otras alteraciones del gusto y del olfato y las no especificadas</t>
+  </si>
+  <si>
+    <t>Aborto no especificado: completo o no especificado, complicado con infeccion genital y pelviana</t>
+  </si>
+  <si>
+    <t>Otras alteraciones visuales</t>
+  </si>
+  <si>
+    <t>Catarata, no especificada</t>
+  </si>
+  <si>
+    <t>Otras artropatias postinfecciosas en enfermedades clasificadas en otra parte</t>
+  </si>
+  <si>
+    <t>Conjuntivitis aguda, no especificada</t>
+  </si>
+  <si>
+    <t>Otras formas de infecciones herpeticas</t>
+  </si>
+  <si>
+    <t>Otras gastroenteritis y colitis de origen infeccioso</t>
+  </si>
+  <si>
+    <t>Enfermedad de las vias respiratorias superiores, no especificada</t>
+  </si>
+  <si>
+    <t>Otros desplazamientos del disco intervertebral, especificado</t>
+  </si>
+  <si>
+    <t>Gastritis cronica, no especificada</t>
+  </si>
+  <si>
+    <t>Otros glaucomas</t>
+  </si>
+  <si>
+    <t>Hallazgos anormales en el examen citologico e histologico de la orina</t>
+  </si>
+  <si>
+    <t>Otros prurigos</t>
+  </si>
+  <si>
+    <t>Heridas De Otras Partes Del Antebrazo</t>
+  </si>
+  <si>
+    <t>Otros sintomas y signos especificados que involucran los sistemas circulatorio y respiratorio</t>
+  </si>
+  <si>
+    <t>Enfermedad cardiovascular, no especificada</t>
+  </si>
+  <si>
+    <t>Preocupacion indebida por sucesos que causan tension</t>
+  </si>
+  <si>
+    <t>Gota, no especificada</t>
+  </si>
+  <si>
+    <t>Apnea del sueño</t>
+  </si>
+  <si>
+    <t>Tiña de las uñas</t>
+  </si>
+  <si>
+    <t>Estenosis e insuficiencia de las vias lagrimales</t>
+  </si>
+  <si>
+    <t>Trastornos de adaptacion</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus no insulinodependiente con complicaciones no especificadas</t>
+  </si>
+  <si>
+    <t>Trastornos Del Inicio Y Del Mantenimiento Del Sueño [Insomnios]</t>
+  </si>
+  <si>
+    <t>Hemorragia gastrointestinal, no especificada</t>
+  </si>
+  <si>
+    <t>Trastornos del metabolismo del calcio</t>
+  </si>
+  <si>
+    <t>Hallazgos anormales en diagnostico por imagen del corazon y de la circulacion coronaria</t>
+  </si>
+  <si>
+    <t>Dermatitis, no especificada</t>
+  </si>
+  <si>
+    <t>Colitis amebiana no disenterica</t>
+  </si>
+  <si>
+    <t>Infeccion debida a el virus del herpes, no especificada</t>
+  </si>
+  <si>
+    <t>Gastroenteritis y colitis de origen no especificado</t>
+  </si>
+  <si>
+    <t>Disnea</t>
+  </si>
+  <si>
+    <t>Obesidad, no especificada</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1147,7 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1183,9 +1198,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1546,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3020CE-17AC-4DCC-B855-C05855A06DE1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,13 +1581,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B2">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="C2">
-        <v>213</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1585,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B3CEF-2446-471D-B777-AD2F1CBAD8AA}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,21 +1621,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44927</v>
-      </c>
-      <c r="B2" s="19" t="s">
+        <v>45078</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>513</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>44927</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>7</v>
+        <v>45078</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
       </c>
       <c r="C3">
         <v>198</v>
@@ -1631,145 +1643,46 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>44927</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>8</v>
+        <v>45078</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
       </c>
       <c r="C4">
-        <v>6266</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>44958</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>6</v>
+        <v>45078</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
       </c>
       <c r="C5">
-        <v>445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>44958</v>
-      </c>
-      <c r="B6" s="19" t="s">
+        <v>45078</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>138</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>44958</v>
-      </c>
-      <c r="B7" s="19" t="s">
+        <v>45078</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>5927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>44986</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>45017</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>45017</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>45017</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>6281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>45047</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>45047</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>45047</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>9101</v>
+        <v>8973</v>
       </c>
     </row>
   </sheetData>
@@ -1808,30 +1721,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1867,24 +1780,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C2">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>8527</v>
+        <v>9528</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1810,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,127 +1833,135 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C2">
-        <v>5637</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="C3">
-        <v>5200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C5">
-        <v>655</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C6">
-        <v>981</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="C7">
-        <v>4103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>573</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="10">
+        <v>45078</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -2061,9 +1982,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F91F99-8346-4ED2-8953-1026A1CE3A8D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2082,24 +2003,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B2">
-        <v>7700</v>
+        <v>6963</v>
       </c>
       <c r="C2">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>45017</v>
-      </c>
-      <c r="B3">
-        <v>6300</v>
-      </c>
-      <c r="C3">
-        <v>79</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2022,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,18 +2036,18 @@
         <v>19</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B2">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -2156,7 +2066,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,156 +2087,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>1563</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>624</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>1986</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>386</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>994</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>898</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>1061</v>
+        <v>844</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2380,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F647B8A-3E71-4CDC-B280-1882725A6ACD}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,18 +2306,18 @@
         <v>19</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2415,21 +2325,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2437,10 +2347,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2448,21 +2358,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2470,10 +2380,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2481,21 +2391,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2503,10 +2413,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2514,10 +2424,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2525,32 +2435,32 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2558,21 +2468,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2580,10 +2490,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2591,10 +2501,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2602,32 +2512,32 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2635,21 +2545,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2657,21 +2567,21 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2679,10 +2589,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2690,10 +2600,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2701,21 +2611,21 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2723,10 +2633,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2734,10 +2644,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2745,10 +2655,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2756,21 +2666,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2778,21 +2688,21 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2800,10 +2710,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2811,10 +2721,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2822,10 +2732,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2833,21 +2743,21 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2855,10 +2765,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2866,21 +2776,21 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2888,21 +2798,21 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2910,43 +2820,43 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C50">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2954,10 +2864,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2965,10 +2875,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2976,21 +2886,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2998,10 +2908,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3009,10 +2919,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3020,21 +2930,21 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3042,10 +2952,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3053,21 +2963,21 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3075,10 +2985,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3086,117 +2996,117 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C65">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -3207,222 +3117,222 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C75">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B77" t="s">
         <v>41</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B94" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3431,8 +3341,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E8AAD53D957193499A95B0822EE92604" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33b02bf87a1dd6f4b3a4b5e0f725ed7a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b848449e-c9d3-4969-a575-ff0d96471e4b" xmlns:ns3="ac8deb47-86bc-4260-8fcd-a6158e6e95f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6d66165c6d3d4cf8e0bc57ff34d5fa9" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E8AAD53D957193499A95B0822EE92604" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="64521337f70ab7452aeeac0760611e10">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b848449e-c9d3-4969-a575-ff0d96471e4b" xmlns:ns3="ac8deb47-86bc-4260-8fcd-a6158e6e95f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bab967c49d094239a50a0e5887e9ad5e" ns2:_="" ns3:_="">
     <xsd:import namespace="b848449e-c9d3-4969-a575-ff0d96471e4b"/>
     <xsd:import namespace="ac8deb47-86bc-4260-8fcd-a6158e6e95f4"/>
     <xsd:element name="properties">
@@ -3445,6 +3355,7 @@
                 <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3493,6 +3404,11 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3605,9 +3521,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F6E2CCB-1CE4-48FB-AB77-7BFACBDCA807}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B28209-6911-43FA-8A75-880375C50FDD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2786C11E-4E07-4F00-8439-2D12527E8B67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53338687-BE81-44BA-83D6-3594DB1F4EAA}"/>
 </file>
--- a/dags/files_pami/TeleSalud.xlsx
+++ b/dags/files_pami/TeleSalud.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/TELESALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A708F5AC-363F-4C4C-A78E-B6583CA9CECD}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA45006-3134-471B-A274-2A7ACE07E37D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
   <si>
     <t>MES</t>
   </si>
@@ -160,15 +160,6 @@
     <t>Lumbago no especificado</t>
   </si>
   <si>
-    <t>Otras rinitis alergicas</t>
-  </si>
-  <si>
-    <t>Otros vertigos perifericos</t>
-  </si>
-  <si>
-    <t>Cefalea debida a tension</t>
-  </si>
-  <si>
     <t>Tos</t>
   </si>
   <si>
@@ -184,27 +175,9 @@
     <t>Examen medico general</t>
   </si>
   <si>
-    <t>Otros estados postquirurgicos especificados</t>
-  </si>
-  <si>
-    <t>Dolor en miembro</t>
-  </si>
-  <si>
     <t>Cefalea</t>
   </si>
   <si>
-    <t>Conjuntivitis mucopurulenta</t>
-  </si>
-  <si>
-    <t>Infeccion de vias urinarias, sitio no especificado</t>
-  </si>
-  <si>
-    <t>Otras enteritis virales</t>
-  </si>
-  <si>
-    <t>Otras sinusitis agudas</t>
-  </si>
-  <si>
     <t>Diarrea y gastroenteritis de presunto origen infeccioso</t>
   </si>
   <si>
@@ -217,69 +190,18 @@
     <t>Infeccion viral, no especificada</t>
   </si>
   <si>
-    <t>Cistitis agudas</t>
-  </si>
-  <si>
-    <t>Fiebre, no especificada</t>
-  </si>
-  <si>
-    <t>Diarrea funcional</t>
-  </si>
-  <si>
-    <t>Alergia no especificada</t>
-  </si>
-  <si>
-    <t>Amigdalitis aguda, no especificada</t>
-  </si>
-  <si>
     <t>Cervicalgia</t>
   </si>
   <si>
-    <t>Dolor abdominal localizado en parte superior</t>
-  </si>
-  <si>
     <t>Enfermedad respiratoria aguda debido al nuevo coronavirus (COVID-19)</t>
   </si>
   <si>
-    <t>Extension de certificado medico</t>
-  </si>
-  <si>
-    <t>Gastritis, no especificada</t>
-  </si>
-  <si>
-    <t>Incidente durante otras atenciones medicas y quirurgicas</t>
-  </si>
-  <si>
-    <t>Lectura elevada de la presion sanguinea, sin diagnostico de hipertension</t>
-  </si>
-  <si>
-    <t>Masa no especificada en la mama</t>
-  </si>
-  <si>
-    <t>Orzuelo y otras inflamaciones profundas del parpado</t>
-  </si>
-  <si>
     <t>Otalgia</t>
   </si>
   <si>
-    <t>Otra hiperlipidemia</t>
-  </si>
-  <si>
-    <t>Otras gastritis</t>
-  </si>
-  <si>
-    <t>Otros trastornos especificos de la personalidad</t>
-  </si>
-  <si>
     <t>Rinofaringitis aguda (resfriado comun)</t>
   </si>
   <si>
-    <t>Sindrome del colon irritable sin diarrea</t>
-  </si>
-  <si>
-    <t>Urticaria alergica</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sensibilización Vacunación 3a y 4a  dosis </t>
   </si>
   <si>
@@ -316,163 +238,223 @@
     <t>Recepcion de llamadas</t>
   </si>
   <si>
-    <t>NUMERO  DE PACINETES  ATENDIDOS</t>
-  </si>
-  <si>
-    <t>Historia personal de alergia, no debida a drogas ni a sustancias biologicas</t>
-  </si>
-  <si>
-    <t>Historia personal de enfermedades del sistema circulatorio</t>
-  </si>
-  <si>
-    <t>Acne, no especificado</t>
-  </si>
-  <si>
-    <t>Historia personal de otros tumores malignos del tejido linfoide, hematopoyetico y tejidos relacionados</t>
-  </si>
-  <si>
-    <t>Asma, no especificad</t>
-  </si>
-  <si>
-    <t>Historia personal de tumor maligno de organos genitales</t>
-  </si>
-  <si>
-    <t>Incontinencia fecal</t>
-  </si>
-  <si>
-    <t>Consulta para atencion y supervision de la salud de otros niños o lactantes sanos</t>
-  </si>
-  <si>
-    <t>Mareo y desvanecimiento</t>
-  </si>
-  <si>
-    <t>Edema localizado</t>
-  </si>
-  <si>
-    <t>Enfermedad cerebrovascular, no especificada</t>
-  </si>
-  <si>
-    <t>Enfermedad del reflujo gastroesofagico sin esofagitis</t>
-  </si>
-  <si>
-    <t>Osteoporosis en otras enfermedades clasificadas en otra parte</t>
-  </si>
-  <si>
-    <t>Otitis externa, sin otra especificacion</t>
-  </si>
-  <si>
-    <t>Halitosis</t>
-  </si>
-  <si>
-    <t>Hallazgos anormales en muestras tomadas de otros organos, sistemas y tejidos: hallazgos citologicos anormales, frotis anormal de papanicolaou</t>
-  </si>
-  <si>
-    <t>Otras afecciones especificadas asociadas con los organos genitales femeninos y el ciclo menstrual</t>
-  </si>
-  <si>
-    <t>Hemorragia vaginal y uterina anormal, no especificada</t>
-  </si>
-  <si>
-    <t>Otras alteraciones del gusto y del olfato y las no especificadas</t>
-  </si>
-  <si>
-    <t>Aborto no especificado: completo o no especificado, complicado con infeccion genital y pelviana</t>
-  </si>
-  <si>
-    <t>Otras alteraciones visuales</t>
-  </si>
-  <si>
-    <t>Catarata, no especificada</t>
-  </si>
-  <si>
-    <t>Otras artropatias postinfecciosas en enfermedades clasificadas en otra parte</t>
-  </si>
-  <si>
-    <t>Conjuntivitis aguda, no especificada</t>
-  </si>
-  <si>
-    <t>Otras formas de infecciones herpeticas</t>
-  </si>
-  <si>
-    <t>Otras gastroenteritis y colitis de origen infeccioso</t>
-  </si>
-  <si>
-    <t>Enfermedad de las vias respiratorias superiores, no especificada</t>
-  </si>
-  <si>
-    <t>Otros desplazamientos del disco intervertebral, especificado</t>
-  </si>
-  <si>
-    <t>Gastritis cronica, no especificada</t>
-  </si>
-  <si>
-    <t>Otros glaucomas</t>
-  </si>
-  <si>
-    <t>Hallazgos anormales en el examen citologico e histologico de la orina</t>
-  </si>
-  <si>
-    <t>Otros prurigos</t>
-  </si>
-  <si>
-    <t>Heridas De Otras Partes Del Antebrazo</t>
-  </si>
-  <si>
-    <t>Otros sintomas y signos especificados que involucran los sistemas circulatorio y respiratorio</t>
-  </si>
-  <si>
-    <t>Enfermedad cardiovascular, no especificada</t>
-  </si>
-  <si>
-    <t>Preocupacion indebida por sucesos que causan tension</t>
-  </si>
-  <si>
-    <t>Gota, no especificada</t>
-  </si>
-  <si>
-    <t>Apnea del sueño</t>
-  </si>
-  <si>
-    <t>Tiña de las uñas</t>
-  </si>
-  <si>
-    <t>Estenosis e insuficiencia de las vias lagrimales</t>
-  </si>
-  <si>
-    <t>Trastornos de adaptacion</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus no insulinodependiente con complicaciones no especificadas</t>
-  </si>
-  <si>
     <t>Trastornos Del Inicio Y Del Mantenimiento Del Sueño [Insomnios]</t>
   </si>
   <si>
-    <t>Hemorragia gastrointestinal, no especificada</t>
-  </si>
-  <si>
-    <t>Trastornos del metabolismo del calcio</t>
-  </si>
-  <si>
-    <t>Hallazgos anormales en diagnostico por imagen del corazon y de la circulacion coronaria</t>
-  </si>
-  <si>
-    <t>Dermatitis, no especificada</t>
-  </si>
-  <si>
-    <t>Colitis amebiana no disenterica</t>
-  </si>
-  <si>
-    <t>Infeccion debida a el virus del herpes, no especificada</t>
-  </si>
-  <si>
-    <t>Gastroenteritis y colitis de origen no especificado</t>
-  </si>
-  <si>
-    <t>Disnea</t>
-  </si>
-  <si>
-    <t>Obesidad, no especificada</t>
+    <t>NUMERO  DE PACINETES  ATRENDIDOS</t>
+  </si>
+  <si>
+    <t>Dermatitis Seborreica, No Especificada</t>
+  </si>
+  <si>
+    <t>Lesiones Del Hombro, No Especificada</t>
+  </si>
+  <si>
+    <t>Diarrea Y Gastroenteritis De Presunto Origen Infeccioso</t>
+  </si>
+  <si>
+    <t>Menstruacion Irregular, No Especificada</t>
+  </si>
+  <si>
+    <t>Viruela De Los Monos</t>
+  </si>
+  <si>
+    <t>Miopia</t>
+  </si>
+  <si>
+    <t>Rinitis Alergica, No Especificada</t>
+  </si>
+  <si>
+    <t>Acne Vulgar</t>
+  </si>
+  <si>
+    <t>Otras Alteraciones Visuales</t>
+  </si>
+  <si>
+    <t>Amebiasis, No Especificada</t>
+  </si>
+  <si>
+    <t>Otras Atenciones Especificadas Para La Anticoncepcion</t>
+  </si>
+  <si>
+    <t>Calculo Del Ureter</t>
+  </si>
+  <si>
+    <t>Otras Dorsalgias</t>
+  </si>
+  <si>
+    <t>Conjuntivitis Aguda, No Especificada</t>
+  </si>
+  <si>
+    <t>Otras Formas Especificadas De Temblor</t>
+  </si>
+  <si>
+    <t>Diabetes Mellitus No Insulinodependiente Sin Mencion De Complicacion</t>
+  </si>
+  <si>
+    <t>Otras Gastroenteritis Y Colitis De Origen Infeccioso</t>
+  </si>
+  <si>
+    <t>Disuria</t>
+  </si>
+  <si>
+    <t>Otras Migrañas</t>
+  </si>
+  <si>
+    <t>Examen Ginecologico (General) (De Rutina)</t>
+  </si>
+  <si>
+    <t>Otras uretritis</t>
+  </si>
+  <si>
+    <t>Flebitis Y Tromboflebitis De Sitio No Especificado</t>
+  </si>
+  <si>
+    <t>Otros Desgarros (No Traumaticos) Del Musculo</t>
+  </si>
+  <si>
+    <t>Herpes Zoster Sin Complicaciones</t>
+  </si>
+  <si>
+    <t>Otros Episodios Depresivos</t>
+  </si>
+  <si>
+    <t>Infeccion Aguda De Las Vias Respiratorias Superiores, No Especificada</t>
+  </si>
+  <si>
+    <t>Otros Trastornos Internos De La Rodilla</t>
+  </si>
+  <si>
+    <t>Dolor En Articulacion</t>
+  </si>
+  <si>
+    <t>Poliartrosis, No Especificada</t>
+  </si>
+  <si>
+    <t>Menstruacion irregular, no especificad</t>
+  </si>
+  <si>
+    <t>Problemas Relacionados Con La Dieta Y Habitos Alimentarios Inapropiados</t>
+  </si>
+  <si>
+    <t>Tumor Benigno Lipomatoso, De Sitio No Especificado</t>
+  </si>
+  <si>
+    <t>Procedimiento No Realizado Por Decision Del Paciente, Por Otras Razones Y Las No Especificadas</t>
+  </si>
+  <si>
+    <t>Prurito, No Especificado</t>
+  </si>
+  <si>
+    <t>Pterigion</t>
+  </si>
+  <si>
+    <t>Quemadura Solar Segundo Grado</t>
+  </si>
+  <si>
+    <t>Incidente Durante Otras Atenciones Medicas Y Quirurgicas</t>
+  </si>
+  <si>
+    <t>Sincope y colapso</t>
+  </si>
+  <si>
+    <t>Hemorragia Del Ano Y Del Recto</t>
+  </si>
+  <si>
+    <t>Sindrome Del Colon Irritable Con Diarrea</t>
+  </si>
+  <si>
+    <t>Amigdalitis Aguda, No Especificada</t>
+  </si>
+  <si>
+    <t>Sinusitis Aguda, No Especificada</t>
+  </si>
+  <si>
+    <t>Enfermedad Diverticular Del Intestino Grueso Sin Perforacion Ni Absceso</t>
+  </si>
+  <si>
+    <t>Trastorno Articular, No Especificado</t>
+  </si>
+  <si>
+    <t>Infeccion Aguda No Especificada De Las Vias Respiratorias Inferiores</t>
+  </si>
+  <si>
+    <t>Trastorno Depresivo Recurrente, No Especificado</t>
+  </si>
+  <si>
+    <t>Consulta Para Repeticion De Recet</t>
+  </si>
+  <si>
+    <t>Trastornos De Adaptacion</t>
+  </si>
+  <si>
+    <t>Venas Varicosas De Los Miembros Inferiores Sin Ulcera Ni Inflamacion</t>
+  </si>
+  <si>
+    <t>Herida De La Muñeca Y De La Mano, Parte No Especificada</t>
+  </si>
+  <si>
+    <t>Trastornos Inflamatorios De La Mama</t>
+  </si>
+  <si>
+    <t>Dolor Localizado En Otras Partes Inferiores Del Abdomen</t>
+  </si>
+  <si>
+    <t>Dolor En Miembro</t>
+  </si>
+  <si>
+    <t>Otitis Media, No Especificada</t>
+  </si>
+  <si>
+    <t>Trastorno Mixto De Ansiedad Y Depresion</t>
+  </si>
+  <si>
+    <t>Gastritis, No Especificada</t>
+  </si>
+  <si>
+    <t>Vaginitis Aguda</t>
+  </si>
+  <si>
+    <t>Infeccion Viral, No Especificada</t>
+  </si>
+  <si>
+    <t>Contractura muscular</t>
+  </si>
+  <si>
+    <t>Traumatismo No Especificado De La Muñeca Y De La Mano</t>
+  </si>
+  <si>
+    <t>Dolor Pelvico Y Perineal</t>
+  </si>
+  <si>
+    <t>Hemorroides No Especificadas, Sin Complicacion</t>
+  </si>
+  <si>
+    <t>Otras colitis y gastroenteritis no infecciosas especificadas</t>
+  </si>
+  <si>
+    <t>Otros Dolores Abdominales Y Los No Especificados</t>
+  </si>
+  <si>
+    <t>Otras Sinusitis Agudas</t>
+  </si>
+  <si>
+    <t>Diarrea Funcional</t>
+  </si>
+  <si>
+    <t>Gastroenteritis Y Colitis De Origen No Especificado</t>
+  </si>
+  <si>
+    <t>Colitis y gastroenteritis no infecciosas, no especificadas</t>
+  </si>
+  <si>
+    <t>Infeccion De Vias Urinarias, Sitio No Especificado</t>
+  </si>
+  <si>
+    <t>(en blanco)</t>
+  </si>
+  <si>
+    <t>Llamada perdidas</t>
   </si>
 </sst>
 </file>
@@ -1581,13 +1563,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B2">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C2">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1621,43 +1603,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1269</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>198</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1665,24 +1647,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>270</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>8973</v>
+        <v>6292</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1677,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,30 +1703,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>134</v>
-      </c>
-      <c r="D2">
-        <v>145</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3">
-        <v>157</v>
-      </c>
-      <c r="D3">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +1727,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,24 +1750,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C2">
-        <v>222</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>9528</v>
+        <v>6406</v>
       </c>
     </row>
   </sheetData>
@@ -1810,13 +1780,13 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1833,10 +1803,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1844,10 +1814,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1855,10 +1825,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1866,10 +1836,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>180</v>
@@ -1877,10 +1847,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>120</v>
@@ -1888,10 +1858,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1899,10 +1869,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1910,10 +1880,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -1921,7 +1891,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1932,7 +1902,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1943,7 +1913,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1954,10 +1924,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2003,13 +1973,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B2">
-        <v>6963</v>
+        <v>7021</v>
       </c>
       <c r="C2">
-        <v>118</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -2022,7 +1992,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2006,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>20</v>
@@ -2044,13 +2014,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B2">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2066,7 +2036,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,150 +2057,150 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3">
-        <v>511</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4">
-        <v>1711</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5">
-        <v>1805</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6">
-        <v>816</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9">
-        <v>1014</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13">
-        <v>844</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -2240,7 +2210,15 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="10">
+        <v>45108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16">
+        <v>151</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
@@ -2290,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F647B8A-3E71-4CDC-B280-1882725A6ACD}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,10 +2292,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2325,10 +2303,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2336,10 +2314,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2347,10 +2325,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2358,10 +2336,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2369,10 +2347,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2380,10 +2358,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2391,10 +2369,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2402,10 +2380,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2413,10 +2391,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2424,10 +2402,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2435,10 +2413,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2446,10 +2424,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2457,10 +2435,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2468,10 +2446,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2479,10 +2457,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2490,10 +2468,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2501,10 +2479,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2512,10 +2490,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2523,10 +2501,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2534,10 +2512,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2545,10 +2523,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2556,10 +2534,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2567,10 +2545,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2578,10 +2556,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2589,10 +2567,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2600,10 +2578,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2611,10 +2589,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2622,10 +2600,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2633,10 +2611,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2644,10 +2622,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2655,10 +2633,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2666,10 +2644,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2677,10 +2655,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2688,10 +2666,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2699,10 +2677,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2710,10 +2688,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2721,10 +2699,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2732,10 +2710,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2743,10 +2721,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2754,10 +2732,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2765,10 +2743,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2776,10 +2754,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2787,10 +2765,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2798,10 +2776,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2809,10 +2787,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2820,10 +2798,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2831,10 +2809,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2842,10 +2820,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2853,10 +2831,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2864,10 +2842,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2875,10 +2853,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2886,10 +2864,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2897,10 +2875,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2908,10 +2886,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2919,87 +2897,87 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -3007,10 +2985,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -3018,10 +2996,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -3029,10 +3007,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -3040,10 +3018,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -3051,10 +3029,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -3062,278 +3040,222 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B81" t="s">
         <v>39</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
-        <v>45078</v>
-      </c>
-      <c r="B88" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88">
-        <v>5</v>
-      </c>
+      <c r="A88" s="10"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
-        <v>45078</v>
-      </c>
-      <c r="B89" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89">
-        <v>7</v>
-      </c>
+      <c r="A89" s="10"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
-        <v>45078</v>
-      </c>
-      <c r="B90" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90">
-        <v>10</v>
-      </c>
+      <c r="A90" s="10"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
-        <v>45078</v>
-      </c>
-      <c r="B91" t="s">
-        <v>55</v>
-      </c>
-      <c r="C91">
-        <v>11</v>
-      </c>
+      <c r="A91" s="10"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
-        <v>45078</v>
-      </c>
-      <c r="B92" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92">
-        <v>11</v>
-      </c>
+      <c r="A92" s="10"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="10">
-        <v>45078</v>
-      </c>
-      <c r="B93" t="s">
-        <v>54</v>
-      </c>
-      <c r="C93">
-        <v>13</v>
-      </c>
+      <c r="A93" s="10"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="10">
-        <v>45078</v>
-      </c>
-      <c r="B94" t="s">
-        <v>56</v>
-      </c>
-      <c r="C94">
-        <v>51</v>
-      </c>
+      <c r="A94" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3521,9 +3443,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B28209-6911-43FA-8A75-880375C50FDD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB5532F4-6DEB-4A7C-A8E9-650309245688}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53338687-BE81-44BA-83D6-3594DB1F4EAA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87D2D17-FED3-4BCB-AD02-867361360432}"/>
 </file>
--- a/dags/files_pami/TeleSalud.xlsx
+++ b/dags/files_pami/TeleSalud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/TELESALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA45006-3134-471B-A274-2A7ACE07E37D}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{326AD412-6894-4411-9B38-AADAE48E92FE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
   </bookViews>
   <sheets>
     <sheet name="NivelServicio" sheetId="1" r:id="rId1"/>
@@ -1540,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3020CE-17AC-4DCC-B855-C05855A06DE1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1676,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6479FFD8-0532-4707-B02E-C13D05A8A3B3}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,6 +1708,12 @@
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1715,6 +1721,12 @@
       </c>
       <c r="B3" t="s">
         <v>10</v>
+      </c>
+      <c r="C3">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3443,9 +3455,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB5532F4-6DEB-4A7C-A8E9-650309245688}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8A4116-46D6-48D5-9429-F3936950F3FC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87D2D17-FED3-4BCB-AD02-867361360432}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6DE5BBF-AAA3-4CDA-B891-659E4B4092E6}"/>
 </file>
--- a/dags/files_pami/TeleSalud.xlsx
+++ b/dags/files_pami/TeleSalud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/TELESALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="384" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{326AD412-6894-4411-9B38-AADAE48E92FE}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14011B75-E038-46B0-AA56-FB730CE5C311}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="8" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
   </bookViews>
   <sheets>
     <sheet name="NivelServicio" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
   <si>
     <t>MES</t>
   </si>
@@ -157,51 +157,15 @@
     <t>ATENCIONES</t>
   </si>
   <si>
-    <t>Lumbago no especificado</t>
-  </si>
-  <si>
     <t>Tos</t>
   </si>
   <si>
-    <t>Consulta para repeticion de receta</t>
-  </si>
-  <si>
     <t>Dispepsia</t>
   </si>
   <si>
-    <t>Hipertension esencial (primaria)</t>
-  </si>
-  <si>
-    <t>Examen medico general</t>
-  </si>
-  <si>
-    <t>Cefalea</t>
-  </si>
-  <si>
-    <t>Diarrea y gastroenteritis de presunto origen infeccioso</t>
-  </si>
-  <si>
-    <t>Otros examenes para fines administrativos</t>
-  </si>
-  <si>
-    <t>Enfermedad respiratoria aguda por posible coronavirus (COVID-19)</t>
-  </si>
-  <si>
-    <t>Infeccion viral, no especificada</t>
-  </si>
-  <si>
     <t>Cervicalgia</t>
   </si>
   <si>
-    <t>Enfermedad respiratoria aguda debido al nuevo coronavirus (COVID-19)</t>
-  </si>
-  <si>
-    <t>Otalgia</t>
-  </si>
-  <si>
-    <t>Rinofaringitis aguda (resfriado comun)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sensibilización Vacunación 3a y 4a  dosis </t>
   </si>
   <si>
@@ -244,217 +208,268 @@
     <t>NUMERO  DE PACINETES  ATRENDIDOS</t>
   </si>
   <si>
-    <t>Dermatitis Seborreica, No Especificada</t>
-  </si>
-  <si>
-    <t>Lesiones Del Hombro, No Especificada</t>
-  </si>
-  <si>
     <t>Diarrea Y Gastroenteritis De Presunto Origen Infeccioso</t>
   </si>
   <si>
-    <t>Menstruacion Irregular, No Especificada</t>
-  </si>
-  <si>
-    <t>Viruela De Los Monos</t>
-  </si>
-  <si>
-    <t>Miopia</t>
-  </si>
-  <si>
-    <t>Rinitis Alergica, No Especificada</t>
-  </si>
-  <si>
-    <t>Acne Vulgar</t>
-  </si>
-  <si>
-    <t>Otras Alteraciones Visuales</t>
-  </si>
-  <si>
-    <t>Amebiasis, No Especificada</t>
-  </si>
-  <si>
     <t>Otras Atenciones Especificadas Para La Anticoncepcion</t>
   </si>
   <si>
-    <t>Calculo Del Ureter</t>
-  </si>
-  <si>
-    <t>Otras Dorsalgias</t>
-  </si>
-  <si>
     <t>Conjuntivitis Aguda, No Especificada</t>
   </si>
   <si>
-    <t>Otras Formas Especificadas De Temblor</t>
-  </si>
-  <si>
     <t>Diabetes Mellitus No Insulinodependiente Sin Mencion De Complicacion</t>
   </si>
   <si>
-    <t>Otras Gastroenteritis Y Colitis De Origen Infeccioso</t>
-  </si>
-  <si>
     <t>Disuria</t>
   </si>
   <si>
     <t>Otras Migrañas</t>
   </si>
   <si>
-    <t>Examen Ginecologico (General) (De Rutina)</t>
-  </si>
-  <si>
-    <t>Otras uretritis</t>
-  </si>
-  <si>
-    <t>Flebitis Y Tromboflebitis De Sitio No Especificado</t>
-  </si>
-  <si>
-    <t>Otros Desgarros (No Traumaticos) Del Musculo</t>
-  </si>
-  <si>
-    <t>Herpes Zoster Sin Complicaciones</t>
-  </si>
-  <si>
-    <t>Otros Episodios Depresivos</t>
-  </si>
-  <si>
     <t>Infeccion Aguda De Las Vias Respiratorias Superiores, No Especificada</t>
   </si>
   <si>
-    <t>Otros Trastornos Internos De La Rodilla</t>
-  </si>
-  <si>
-    <t>Dolor En Articulacion</t>
-  </si>
-  <si>
-    <t>Poliartrosis, No Especificada</t>
-  </si>
-  <si>
-    <t>Menstruacion irregular, no especificad</t>
-  </si>
-  <si>
-    <t>Problemas Relacionados Con La Dieta Y Habitos Alimentarios Inapropiados</t>
-  </si>
-  <si>
-    <t>Tumor Benigno Lipomatoso, De Sitio No Especificado</t>
-  </si>
-  <si>
-    <t>Procedimiento No Realizado Por Decision Del Paciente, Por Otras Razones Y Las No Especificadas</t>
-  </si>
-  <si>
-    <t>Prurito, No Especificado</t>
-  </si>
-  <si>
-    <t>Pterigion</t>
-  </si>
-  <si>
-    <t>Quemadura Solar Segundo Grado</t>
-  </si>
-  <si>
-    <t>Incidente Durante Otras Atenciones Medicas Y Quirurgicas</t>
-  </si>
-  <si>
-    <t>Sincope y colapso</t>
-  </si>
-  <si>
-    <t>Hemorragia Del Ano Y Del Recto</t>
-  </si>
-  <si>
     <t>Sindrome Del Colon Irritable Con Diarrea</t>
   </si>
   <si>
     <t>Amigdalitis Aguda, No Especificada</t>
   </si>
   <si>
-    <t>Sinusitis Aguda, No Especificada</t>
-  </si>
-  <si>
-    <t>Enfermedad Diverticular Del Intestino Grueso Sin Perforacion Ni Absceso</t>
-  </si>
-  <si>
-    <t>Trastorno Articular, No Especificado</t>
-  </si>
-  <si>
-    <t>Infeccion Aguda No Especificada De Las Vias Respiratorias Inferiores</t>
-  </si>
-  <si>
-    <t>Trastorno Depresivo Recurrente, No Especificado</t>
-  </si>
-  <si>
-    <t>Consulta Para Repeticion De Recet</t>
-  </si>
-  <si>
     <t>Trastornos De Adaptacion</t>
   </si>
   <si>
-    <t>Venas Varicosas De Los Miembros Inferiores Sin Ulcera Ni Inflamacion</t>
-  </si>
-  <si>
-    <t>Herida De La Muñeca Y De La Mano, Parte No Especificada</t>
-  </si>
-  <si>
-    <t>Trastornos Inflamatorios De La Mama</t>
-  </si>
-  <si>
-    <t>Dolor Localizado En Otras Partes Inferiores Del Abdomen</t>
-  </si>
-  <si>
-    <t>Dolor En Miembro</t>
-  </si>
-  <si>
     <t>Otitis Media, No Especificada</t>
   </si>
   <si>
-    <t>Trastorno Mixto De Ansiedad Y Depresion</t>
-  </si>
-  <si>
-    <t>Gastritis, No Especificada</t>
-  </si>
-  <si>
     <t>Vaginitis Aguda</t>
   </si>
   <si>
     <t>Infeccion Viral, No Especificada</t>
   </si>
   <si>
-    <t>Contractura muscular</t>
-  </si>
-  <si>
-    <t>Traumatismo No Especificado De La Muñeca Y De La Mano</t>
-  </si>
-  <si>
     <t>Dolor Pelvico Y Perineal</t>
   </si>
   <si>
-    <t>Hemorroides No Especificadas, Sin Complicacion</t>
-  </si>
-  <si>
-    <t>Otras colitis y gastroenteritis no infecciosas especificadas</t>
-  </si>
-  <si>
-    <t>Otros Dolores Abdominales Y Los No Especificados</t>
-  </si>
-  <si>
     <t>Otras Sinusitis Agudas</t>
   </si>
   <si>
-    <t>Diarrea Funcional</t>
-  </si>
-  <si>
     <t>Gastroenteritis Y Colitis De Origen No Especificado</t>
   </si>
   <si>
-    <t>Colitis y gastroenteritis no infecciosas, no especificadas</t>
-  </si>
-  <si>
     <t>Infeccion De Vias Urinarias, Sitio No Especificado</t>
   </si>
   <si>
-    <t>(en blanco)</t>
-  </si>
-  <si>
     <t>Llamada perdidas</t>
+  </si>
+  <si>
+    <t>Hipotiroidismo, No Especificado</t>
+  </si>
+  <si>
+    <t>Acne, No Especificado</t>
+  </si>
+  <si>
+    <t>Asma, No Especificada</t>
+  </si>
+  <si>
+    <t>Historia Personal De Uso (Presente) De Anticoagulantes Por Largo Tiempo</t>
+  </si>
+  <si>
+    <t>Bronquitis Aguda, No Especificada</t>
+  </si>
+  <si>
+    <t>Incidente durante otras atenciones medicas y quirurgicas</t>
+  </si>
+  <si>
+    <t>Insuficiencia Venosa (Cronica) (Periferica)</t>
+  </si>
+  <si>
+    <t>Laringitis Aguda</t>
+  </si>
+  <si>
+    <t>Conjuntivitis Atopica Aguda</t>
+  </si>
+  <si>
+    <t>Migraña Con Aura [Migraña Clasica]</t>
+  </si>
+  <si>
+    <t>Contusion De Otras Partes Del Antebrazo Y De Las No Especificadas</t>
+  </si>
+  <si>
+    <t>Migraña, No Especificada</t>
+  </si>
+  <si>
+    <t>Demencia En La Enfermedad De Alzheimer, No Especificada (G30.9†)</t>
+  </si>
+  <si>
+    <t>Necesidad De Inmunizacion Contra La Influenza [Gripe]</t>
+  </si>
+  <si>
+    <t>Nevo, No Neoplasico</t>
+  </si>
+  <si>
+    <t>Otitis Externa, Sin Otra Especificacion</t>
+  </si>
+  <si>
+    <t>Enfermedad Pulmonar Obstructiva Cronica Con Exacerbacion Aguda, No Especificada</t>
+  </si>
+  <si>
+    <t>Extension De Certificado Medico</t>
+  </si>
+  <si>
+    <t>Otras Cistitis</t>
+  </si>
+  <si>
+    <t>Hallazgos Anormales En Diagnostico Por Imagen De La Mama</t>
+  </si>
+  <si>
+    <t>Otras Conjuntivitis Agudas</t>
+  </si>
+  <si>
+    <t>Hernia Abdominal No Especificada, Sin Obstruccion Ni Gangrena</t>
+  </si>
+  <si>
+    <t>Otras Enfermedades Especificadas De La Vesicula Bilia</t>
+  </si>
+  <si>
+    <t>Hiperhidrosis, No Especificada</t>
+  </si>
+  <si>
+    <t>Otras Epilepsias</t>
+  </si>
+  <si>
+    <t>Amigdalitis Estreptococica</t>
+  </si>
+  <si>
+    <t>Otras Gastritis Agudas</t>
+  </si>
+  <si>
+    <t>Insuficiencia Renal No Especificada</t>
+  </si>
+  <si>
+    <t>Otras Miopatias Especificadas</t>
+  </si>
+  <si>
+    <t>Conjuntivitis Mucopurulenta</t>
+  </si>
+  <si>
+    <t>Otras Otitis Externas</t>
+  </si>
+  <si>
+    <t>Dermatitis, No Especificada</t>
+  </si>
+  <si>
+    <t>Otras Otitis Externas Infecciosas</t>
+  </si>
+  <si>
+    <t>Enfermedad De La Sangre Y De Los Organos Hematopoyeticos, No Especificada</t>
+  </si>
+  <si>
+    <t>Otros Dolores En El Pecho</t>
+  </si>
+  <si>
+    <t>Hallazgo De Niveles Anormales De Metales Pesados En La Sangre</t>
+  </si>
+  <si>
+    <t>Otros Estados Postquirurgicos Especificados</t>
+  </si>
+  <si>
+    <t>Hiperhidrosis Localizada</t>
+  </si>
+  <si>
+    <t>Otros Trastornos Especificos De La Personalidad</t>
+  </si>
+  <si>
+    <t>Blefaritis</t>
+  </si>
+  <si>
+    <t>Otros Trastornos Menopausicos Y Perimenopausicos Especificados</t>
+  </si>
+  <si>
+    <t>Tumor Benigno De La Piel De Otras Partes Y De Las No Especificadas De La Cara</t>
+  </si>
+  <si>
+    <t>Quemadura De La Muñeca Y De La Mano, De Primer Grado</t>
+  </si>
+  <si>
+    <t>Disnea</t>
+  </si>
+  <si>
+    <t>Hemorragia Vaginal Y Uterina Anormal, No Especificada</t>
+  </si>
+  <si>
+    <t>Trastorno Afectivo Bipolar, No Especificado</t>
+  </si>
+  <si>
+    <t>Colitis Y Gastroenteritis No Infecciosas, No Especificadas</t>
+  </si>
+  <si>
+    <t>Trastorno De La Pigmentacion, No Especificado</t>
+  </si>
+  <si>
+    <t>Esclerosis Sistemica Progresiva</t>
+  </si>
+  <si>
+    <t>Trastornos De La Articulacion Temporomaxilar</t>
+  </si>
+  <si>
+    <t>Degeneracion Periferica De La Retina</t>
+  </si>
+  <si>
+    <t>Hiperlipidemia Mixta</t>
+  </si>
+  <si>
+    <t>Tumor Benigno De La Mama</t>
+  </si>
+  <si>
+    <t>Colitis Amebiana No Disenterica</t>
+  </si>
+  <si>
+    <t>Fiebre, No Especificada</t>
+  </si>
+  <si>
+    <t>Perdida Anormal De Peso</t>
+  </si>
+  <si>
+    <t>Fractura De Otro Dedo De La Mano</t>
+  </si>
+  <si>
+    <t>Esguinces Y Torceduras Del Tobillo</t>
+  </si>
+  <si>
+    <t>Otros Examenes Para Fines Administrativos</t>
+  </si>
+  <si>
+    <t>Edema Localizado</t>
+  </si>
+  <si>
+    <t>Enfermedad Del Reflujo Gastroesofagico Sin Esofagitis</t>
+  </si>
+  <si>
+    <t>Examen Medico General</t>
+  </si>
+  <si>
+    <t>Otras Rinitis Alergicas</t>
+  </si>
+  <si>
+    <t>Escabiosis</t>
+  </si>
+  <si>
+    <t>Enfermedad Respiratoria Aguda Debido Al Nuevo Coronavirus (Covid-19)</t>
+  </si>
+  <si>
+    <t>Faringitis Aguda, No Especificada</t>
+  </si>
+  <si>
+    <t>Consulta Para Repeticion De Receta</t>
+  </si>
+  <si>
+    <t>Hipertension Esencial (Primaria)</t>
+  </si>
+  <si>
+    <t>Enfermedad Respiratoria Aguda Por Posible Coronavirus (Covid-19)</t>
+  </si>
+  <si>
+    <t>Rinofaringitis Aguda (Resfriado Comun)</t>
   </si>
 </sst>
 </file>
@@ -1563,13 +1578,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C2">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1597,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,43 +1618,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>390</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>71</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1647,24 +1662,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>6292</v>
+        <v>7542</v>
       </c>
     </row>
   </sheetData>
@@ -1676,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6479FFD8-0532-4707-B02E-C13D05A8A3B3}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,30 +1718,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>1132</v>
       </c>
       <c r="D3">
-        <v>168</v>
+        <v>1151</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1754,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,24 +1777,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C2">
-        <v>97</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>6406</v>
+        <v>15104</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1807,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,134 +1830,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>21450</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>180</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>19950</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>107340</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>480</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1985,13 +2000,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B2">
-        <v>7021</v>
+        <v>7072</v>
       </c>
       <c r="C2">
-        <v>573</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2019,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,7 +2033,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>20</v>
@@ -2026,13 +2041,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B2">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2048,7 +2063,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,167 +2084,167 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3">
-        <v>486</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4">
-        <v>2011</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5">
-        <v>1966</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6">
-        <v>701</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9">
-        <v>1111</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13">
-        <v>944</v>
+        <v>902</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C16">
-        <v>151</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -2280,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F647B8A-3E71-4CDC-B280-1882725A6ACD}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,10 +2319,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2315,10 +2330,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2326,10 +2341,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2337,10 +2352,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2348,10 +2363,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2359,10 +2374,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2370,10 +2385,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2381,10 +2396,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2392,10 +2407,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2403,10 +2418,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2414,10 +2429,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2425,10 +2440,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2436,10 +2451,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2447,10 +2462,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2458,10 +2473,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2469,10 +2484,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2480,10 +2495,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2491,10 +2506,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2502,10 +2517,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2513,10 +2528,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2524,10 +2539,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2535,10 +2550,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2546,10 +2561,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2557,10 +2572,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2568,10 +2583,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2579,10 +2594,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2590,10 +2605,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2601,10 +2616,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2612,10 +2627,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2623,10 +2638,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2634,10 +2649,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2645,10 +2660,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2656,10 +2671,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2667,10 +2682,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2678,7 +2693,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B36" t="s">
         <v>99</v>
@@ -2689,10 +2704,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2700,10 +2715,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2711,10 +2726,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2722,10 +2737,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2733,10 +2748,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2744,10 +2759,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2755,10 +2770,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2766,10 +2781,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2777,10 +2792,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2788,10 +2803,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2799,10 +2814,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2810,10 +2825,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2821,10 +2836,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2832,10 +2847,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2843,10 +2858,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2854,10 +2869,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2865,10 +2880,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2876,10 +2891,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2887,10 +2902,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2898,10 +2913,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2909,87 +2924,87 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -2997,10 +3012,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -3008,10 +3023,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -3019,10 +3034,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -3030,10 +3045,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -3041,10 +3056,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -3052,216 +3067,256 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C85">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="C86">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="C87">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="10">
+        <v>45139</v>
+      </c>
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+      <c r="A89" s="10">
+        <v>45139</v>
+      </c>
+      <c r="B89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+      <c r="A90" s="10">
+        <v>45139</v>
+      </c>
+      <c r="B90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90">
+        <v>11</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="10">
+        <v>45139</v>
+      </c>
+      <c r="B91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91">
+        <v>12</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="10">
+        <v>45139</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92">
+        <v>35</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
@@ -3455,9 +3510,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8A4116-46D6-48D5-9429-F3936950F3FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2833E7A-7D94-48BB-B284-07E90834133D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6DE5BBF-AAA3-4CDA-B891-659E4B4092E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A934F114-18FF-4851-927E-ABE7DC28428C}"/>
 </file>
--- a/dags/files_pami/TeleSalud.xlsx
+++ b/dags/files_pami/TeleSalud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/TELESALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14011B75-E038-46B0-AA56-FB730CE5C311}"/>
+  <xr:revisionPtr revIDLastSave="478" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D33284-E049-4DCF-BBF8-215DB997F5A9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="8" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
   </bookViews>
   <sheets>
     <sheet name="NivelServicio" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
   <si>
     <t>MES</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Dispepsia</t>
   </si>
   <si>
-    <t>Cervicalgia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sensibilización Vacunación 3a y 4a  dosis </t>
   </si>
   <si>
@@ -202,33 +199,15 @@
     <t>Recepcion de llamadas</t>
   </si>
   <si>
-    <t>Trastornos Del Inicio Y Del Mantenimiento Del Sueño [Insomnios]</t>
-  </si>
-  <si>
     <t>NUMERO  DE PACINETES  ATRENDIDOS</t>
   </si>
   <si>
     <t>Diarrea Y Gastroenteritis De Presunto Origen Infeccioso</t>
   </si>
   <si>
-    <t>Otras Atenciones Especificadas Para La Anticoncepcion</t>
-  </si>
-  <si>
-    <t>Conjuntivitis Aguda, No Especificada</t>
-  </si>
-  <si>
-    <t>Diabetes Mellitus No Insulinodependiente Sin Mencion De Complicacion</t>
-  </si>
-  <si>
     <t>Disuria</t>
   </si>
   <si>
-    <t>Otras Migrañas</t>
-  </si>
-  <si>
-    <t>Infeccion Aguda De Las Vias Respiratorias Superiores, No Especificada</t>
-  </si>
-  <si>
     <t>Sindrome Del Colon Irritable Con Diarrea</t>
   </si>
   <si>
@@ -238,18 +217,12 @@
     <t>Trastornos De Adaptacion</t>
   </si>
   <si>
-    <t>Otitis Media, No Especificada</t>
-  </si>
-  <si>
     <t>Vaginitis Aguda</t>
   </si>
   <si>
     <t>Infeccion Viral, No Especificada</t>
   </si>
   <si>
-    <t>Dolor Pelvico Y Perineal</t>
-  </si>
-  <si>
     <t>Otras Sinusitis Agudas</t>
   </si>
   <si>
@@ -262,198 +235,39 @@
     <t>Llamada perdidas</t>
   </si>
   <si>
-    <t>Hipotiroidismo, No Especificado</t>
-  </si>
-  <si>
-    <t>Acne, No Especificado</t>
-  </si>
-  <si>
     <t>Asma, No Especificada</t>
   </si>
   <si>
-    <t>Historia Personal De Uso (Presente) De Anticoagulantes Por Largo Tiempo</t>
-  </si>
-  <si>
-    <t>Bronquitis Aguda, No Especificada</t>
-  </si>
-  <si>
-    <t>Incidente durante otras atenciones medicas y quirurgicas</t>
-  </si>
-  <si>
-    <t>Insuficiencia Venosa (Cronica) (Periferica)</t>
-  </si>
-  <si>
-    <t>Laringitis Aguda</t>
-  </si>
-  <si>
-    <t>Conjuntivitis Atopica Aguda</t>
-  </si>
-  <si>
-    <t>Migraña Con Aura [Migraña Clasica]</t>
-  </si>
-  <si>
-    <t>Contusion De Otras Partes Del Antebrazo Y De Las No Especificadas</t>
-  </si>
-  <si>
     <t>Migraña, No Especificada</t>
   </si>
   <si>
-    <t>Demencia En La Enfermedad De Alzheimer, No Especificada (G30.9†)</t>
-  </si>
-  <si>
-    <t>Necesidad De Inmunizacion Contra La Influenza [Gripe]</t>
-  </si>
-  <si>
-    <t>Nevo, No Neoplasico</t>
-  </si>
-  <si>
     <t>Otitis Externa, Sin Otra Especificacion</t>
   </si>
   <si>
-    <t>Enfermedad Pulmonar Obstructiva Cronica Con Exacerbacion Aguda, No Especificada</t>
-  </si>
-  <si>
-    <t>Extension De Certificado Medico</t>
-  </si>
-  <si>
-    <t>Otras Cistitis</t>
-  </si>
-  <si>
-    <t>Hallazgos Anormales En Diagnostico Por Imagen De La Mama</t>
-  </si>
-  <si>
-    <t>Otras Conjuntivitis Agudas</t>
-  </si>
-  <si>
-    <t>Hernia Abdominal No Especificada, Sin Obstruccion Ni Gangrena</t>
-  </si>
-  <si>
-    <t>Otras Enfermedades Especificadas De La Vesicula Bilia</t>
-  </si>
-  <si>
-    <t>Hiperhidrosis, No Especificada</t>
-  </si>
-  <si>
-    <t>Otras Epilepsias</t>
-  </si>
-  <si>
     <t>Amigdalitis Estreptococica</t>
   </si>
   <si>
-    <t>Otras Gastritis Agudas</t>
-  </si>
-  <si>
-    <t>Insuficiencia Renal No Especificada</t>
-  </si>
-  <si>
-    <t>Otras Miopatias Especificadas</t>
-  </si>
-  <si>
     <t>Conjuntivitis Mucopurulenta</t>
   </si>
   <si>
-    <t>Otras Otitis Externas</t>
-  </si>
-  <si>
     <t>Dermatitis, No Especificada</t>
   </si>
   <si>
-    <t>Otras Otitis Externas Infecciosas</t>
-  </si>
-  <si>
-    <t>Enfermedad De La Sangre Y De Los Organos Hematopoyeticos, No Especificada</t>
-  </si>
-  <si>
-    <t>Otros Dolores En El Pecho</t>
-  </si>
-  <si>
-    <t>Hallazgo De Niveles Anormales De Metales Pesados En La Sangre</t>
-  </si>
-  <si>
     <t>Otros Estados Postquirurgicos Especificados</t>
   </si>
   <si>
-    <t>Hiperhidrosis Localizada</t>
-  </si>
-  <si>
-    <t>Otros Trastornos Especificos De La Personalidad</t>
-  </si>
-  <si>
-    <t>Blefaritis</t>
-  </si>
-  <si>
-    <t>Otros Trastornos Menopausicos Y Perimenopausicos Especificados</t>
-  </si>
-  <si>
-    <t>Tumor Benigno De La Piel De Otras Partes Y De Las No Especificadas De La Cara</t>
-  </si>
-  <si>
-    <t>Quemadura De La Muñeca Y De La Mano, De Primer Grado</t>
-  </si>
-  <si>
-    <t>Disnea</t>
-  </si>
-  <si>
     <t>Hemorragia Vaginal Y Uterina Anormal, No Especificada</t>
   </si>
   <si>
-    <t>Trastorno Afectivo Bipolar, No Especificado</t>
-  </si>
-  <si>
-    <t>Colitis Y Gastroenteritis No Infecciosas, No Especificadas</t>
-  </si>
-  <si>
-    <t>Trastorno De La Pigmentacion, No Especificado</t>
-  </si>
-  <si>
-    <t>Esclerosis Sistemica Progresiva</t>
-  </si>
-  <si>
-    <t>Trastornos De La Articulacion Temporomaxilar</t>
-  </si>
-  <si>
-    <t>Degeneracion Periferica De La Retina</t>
-  </si>
-  <si>
-    <t>Hiperlipidemia Mixta</t>
-  </si>
-  <si>
-    <t>Tumor Benigno De La Mama</t>
-  </si>
-  <si>
-    <t>Colitis Amebiana No Disenterica</t>
-  </si>
-  <si>
-    <t>Fiebre, No Especificada</t>
-  </si>
-  <si>
-    <t>Perdida Anormal De Peso</t>
-  </si>
-  <si>
-    <t>Fractura De Otro Dedo De La Mano</t>
-  </si>
-  <si>
-    <t>Esguinces Y Torceduras Del Tobillo</t>
-  </si>
-  <si>
     <t>Otros Examenes Para Fines Administrativos</t>
   </si>
   <si>
-    <t>Edema Localizado</t>
-  </si>
-  <si>
-    <t>Enfermedad Del Reflujo Gastroesofagico Sin Esofagitis</t>
-  </si>
-  <si>
     <t>Examen Medico General</t>
   </si>
   <si>
     <t>Otras Rinitis Alergicas</t>
   </si>
   <si>
-    <t>Escabiosis</t>
-  </si>
-  <si>
     <t>Enfermedad Respiratoria Aguda Debido Al Nuevo Coronavirus (Covid-19)</t>
   </si>
   <si>
@@ -470,6 +284,135 @@
   </si>
   <si>
     <t>Rinofaringitis Aguda (Resfriado Comun)</t>
+  </si>
+  <si>
+    <t>Masa No Especificada En La Mama</t>
+  </si>
+  <si>
+    <t>Infeccion Debida A El Virus Del Herpes, No Especificada</t>
+  </si>
+  <si>
+    <t>Uña Encarnada</t>
+  </si>
+  <si>
+    <t>Arritmia Cardiaca, No Especificada</t>
+  </si>
+  <si>
+    <t>Mastocitosis</t>
+  </si>
+  <si>
+    <t>Aumento Anormal De Peso</t>
+  </si>
+  <si>
+    <t>Medicina General</t>
+  </si>
+  <si>
+    <t>Migraña Sin Aura [Migraña Comun]</t>
+  </si>
+  <si>
+    <t>Deformidad En Valgo, No Clasificada En Otra Parte</t>
+  </si>
+  <si>
+    <t>Dismenorrea Secundaria</t>
+  </si>
+  <si>
+    <t>Orzuelo Y Otras Inflamaciones Profundas Del Parpado</t>
+  </si>
+  <si>
+    <t>Dolor En El Pecho, No Especificado</t>
+  </si>
+  <si>
+    <t>Embolia Y Trombosis De Arterias De Los Miembros Superiores</t>
+  </si>
+  <si>
+    <t>Otras Anormalidades Fecales</t>
+  </si>
+  <si>
+    <t>Otros Glaucomas</t>
+  </si>
+  <si>
+    <t>Fractura De La Clavicula</t>
+  </si>
+  <si>
+    <t>Otros Sintomas Y Signos Concernientes A La Alimentacion Y A La Ingestion De Liquidos</t>
+  </si>
+  <si>
+    <t>Otros Trastornos De La Absorcion Intestinal De Carbohidratos</t>
+  </si>
+  <si>
+    <t>Historia Personal De Otros Factores De Riesgo, No Clasificados En Otra Parte</t>
+  </si>
+  <si>
+    <t>Otros Trastornos Especificados No Inflamatorios De La Vagina</t>
+  </si>
+  <si>
+    <t>Otros Trastornos Inflamatorios Del Pene</t>
+  </si>
+  <si>
+    <t>Enfermedad De Parkinson</t>
+  </si>
+  <si>
+    <t>Rinitis Alergica, No Especificada</t>
+  </si>
+  <si>
+    <t>Tendinitis Aquiliana</t>
+  </si>
+  <si>
+    <t>Anormalidades De Los Leucocitos, No Clasificadas En Otra Parte</t>
+  </si>
+  <si>
+    <t>Trastorno Del Ojo Y Sus Anexos, No Especificado</t>
+  </si>
+  <si>
+    <t>Diarrea Funcional</t>
+  </si>
+  <si>
+    <t>Traumatismos Superficiales Multiples De La Cabeza</t>
+  </si>
+  <si>
+    <t>Flatulencia Y Afecciones Afines</t>
+  </si>
+  <si>
+    <t>Tumor De Comportamiento Incierto O Desconocido Del Labio, De La Cavidad Bucal Y De La Faringe</t>
+  </si>
+  <si>
+    <t>Conjuntivitis En Otras Enfermedades Clasificadas En Otra Parte</t>
+  </si>
+  <si>
+    <t>Tumor Maligno De La Glandula Tiroides</t>
+  </si>
+  <si>
+    <t>Herida De La Muñeca Y De La Mano, Parte No Especificada</t>
+  </si>
+  <si>
+    <t>Tumor Maligno De La Prostata</t>
+  </si>
+  <si>
+    <t>Embarazo confirmado</t>
+  </si>
+  <si>
+    <t>Ulcera del miembro inferior, no clasificada en otra parte</t>
+  </si>
+  <si>
+    <t>Otras migrañas</t>
+  </si>
+  <si>
+    <t>Otros Vertigos Perifericos</t>
+  </si>
+  <si>
+    <t>Cistitis Agudas</t>
+  </si>
+  <si>
+    <t>Herpes Zoster Sin Complicaciones</t>
+  </si>
+  <si>
+    <t>Alergia No Especificada</t>
+  </si>
+  <si>
+    <t>Otros Dolores Abdominales Y Los No Especificados</t>
+  </si>
+  <si>
+    <t>Otras Enteritis Virales</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3020CE-17AC-4DCC-B855-C05855A06DE1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1578,13 +1521,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C2">
-        <v>110</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1597,7 +1540,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,43 +1561,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1321</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1662,24 +1605,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>248</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>7542</v>
+        <v>8761</v>
       </c>
     </row>
   </sheetData>
@@ -1718,30 +1661,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>110</v>
+        <v>508</v>
       </c>
       <c r="D2">
-        <v>115</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1132</v>
+        <v>279</v>
       </c>
       <c r="D3">
-        <v>1151</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -1754,7 +1697,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,24 +1720,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C2">
-        <v>5963</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>15104</v>
+        <v>16712</v>
       </c>
     </row>
   </sheetData>
@@ -1807,7 +1750,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,134 +1773,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>1050</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>21450</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>7396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>7920</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>19950</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>3860</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10">
-        <v>107340</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>19200</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12">
-        <v>480</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>255</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,7 +1925,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,13 +1943,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B2">
-        <v>7072</v>
+        <v>5092</v>
       </c>
       <c r="C2">
-        <v>744</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2033,7 +1976,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>20</v>
@@ -2041,13 +1984,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,7 +2006,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,167 +2027,167 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3">
-        <v>509</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4">
-        <v>2100</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5">
-        <v>2027</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6">
-        <v>834</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9">
-        <v>1190</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12">
-        <v>183</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13">
-        <v>902</v>
+        <v>927</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C16">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -2293,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F647B8A-3E71-4CDC-B280-1882725A6ACD}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,10 +2262,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2330,10 +2273,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2341,10 +2284,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2352,10 +2295,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2363,10 +2306,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2374,10 +2317,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2385,10 +2328,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2396,10 +2339,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2407,10 +2350,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2418,10 +2361,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2429,10 +2372,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2440,10 +2383,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2451,10 +2394,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2462,10 +2405,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2473,10 +2416,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2484,10 +2427,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2495,10 +2438,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2506,10 +2449,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2517,10 +2460,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2528,10 +2471,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2539,10 +2482,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2550,10 +2493,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2561,10 +2504,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2572,10 +2515,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2583,10 +2526,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2594,10 +2537,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2605,10 +2548,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2616,10 +2559,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2627,10 +2570,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2638,10 +2581,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2649,10 +2592,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2660,10 +2603,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2671,10 +2614,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2682,10 +2625,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2693,10 +2636,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2704,10 +2647,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2715,10 +2658,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2726,10 +2669,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2737,10 +2680,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2748,10 +2691,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2759,10 +2702,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2770,10 +2713,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2781,10 +2724,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2792,10 +2735,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2803,10 +2746,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2814,10 +2757,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2825,504 +2768,295 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B57" t="s">
         <v>119</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B58" t="s">
         <v>120</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B74" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
+      <c r="A74" s="10"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B75" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B76" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B77" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B79" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B80" t="s">
-        <v>135</v>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B81" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B82" t="s">
-        <v>137</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B83" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B84" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B85" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B86" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C88">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B89" t="s">
-        <v>140</v>
-      </c>
-      <c r="C89">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B90" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="10">
-        <v>45139</v>
-      </c>
-      <c r="B92" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+      <c r="A75" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3510,9 +3244,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2833E7A-7D94-48BB-B284-07E90834133D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A2A9705-881A-4ACF-9284-46D7E8AD26FC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A934F114-18FF-4851-927E-ABE7DC28428C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F710495B-F334-4E16-88DF-919CAAFDE0E7}"/>
 </file>
--- a/dags/files_pami/TeleSalud.xlsx
+++ b/dags/files_pami/TeleSalud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicossasips-my.sharepoint.com/personal/maristizabal_clinicos_com_co/Documents/GESTIÓN DE TABLEROS/ACTUALIZACION PAMI Y CARTAGENA/TELESALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="478" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D33284-E049-4DCF-BBF8-215DB997F5A9}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="8_{4B5659C0-9799-43E3-8AA9-0A7CD1A7E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47E097F1-0EED-4A24-9386-48CBC719CD1D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{965B34C3-ACEA-40A4-B94B-640CC814EF90}"/>
   </bookViews>
   <sheets>
     <sheet name="NivelServicio" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="138">
   <si>
     <t>MES</t>
   </si>
@@ -208,12 +208,6 @@
     <t>Disuria</t>
   </si>
   <si>
-    <t>Sindrome Del Colon Irritable Con Diarrea</t>
-  </si>
-  <si>
-    <t>Amigdalitis Aguda, No Especificada</t>
-  </si>
-  <si>
     <t>Trastornos De Adaptacion</t>
   </si>
   <si>
@@ -223,180 +217,42 @@
     <t>Infeccion Viral, No Especificada</t>
   </si>
   <si>
-    <t>Otras Sinusitis Agudas</t>
-  </si>
-  <si>
-    <t>Gastroenteritis Y Colitis De Origen No Especificado</t>
-  </si>
-  <si>
     <t>Infeccion De Vias Urinarias, Sitio No Especificado</t>
   </si>
   <si>
     <t>Llamada perdidas</t>
   </si>
   <si>
-    <t>Asma, No Especificada</t>
-  </si>
-  <si>
     <t>Migraña, No Especificada</t>
   </si>
   <si>
-    <t>Otitis Externa, Sin Otra Especificacion</t>
-  </si>
-  <si>
-    <t>Amigdalitis Estreptococica</t>
-  </si>
-  <si>
     <t>Conjuntivitis Mucopurulenta</t>
   </si>
   <si>
-    <t>Dermatitis, No Especificada</t>
-  </si>
-  <si>
     <t>Otros Estados Postquirurgicos Especificados</t>
   </si>
   <si>
-    <t>Hemorragia Vaginal Y Uterina Anormal, No Especificada</t>
-  </si>
-  <si>
     <t>Otros Examenes Para Fines Administrativos</t>
   </si>
   <si>
-    <t>Examen Medico General</t>
-  </si>
-  <si>
-    <t>Otras Rinitis Alergicas</t>
-  </si>
-  <si>
-    <t>Enfermedad Respiratoria Aguda Debido Al Nuevo Coronavirus (Covid-19)</t>
-  </si>
-  <si>
     <t>Faringitis Aguda, No Especificada</t>
   </si>
   <si>
     <t>Consulta Para Repeticion De Receta</t>
   </si>
   <si>
-    <t>Hipertension Esencial (Primaria)</t>
-  </si>
-  <si>
     <t>Enfermedad Respiratoria Aguda Por Posible Coronavirus (Covid-19)</t>
   </si>
   <si>
-    <t>Rinofaringitis Aguda (Resfriado Comun)</t>
-  </si>
-  <si>
-    <t>Masa No Especificada En La Mama</t>
-  </si>
-  <si>
-    <t>Infeccion Debida A El Virus Del Herpes, No Especificada</t>
-  </si>
-  <si>
-    <t>Uña Encarnada</t>
-  </si>
-  <si>
     <t>Arritmia Cardiaca, No Especificada</t>
   </si>
   <si>
-    <t>Mastocitosis</t>
-  </si>
-  <si>
-    <t>Aumento Anormal De Peso</t>
-  </si>
-  <si>
-    <t>Medicina General</t>
-  </si>
-  <si>
-    <t>Migraña Sin Aura [Migraña Comun]</t>
-  </si>
-  <si>
-    <t>Deformidad En Valgo, No Clasificada En Otra Parte</t>
-  </si>
-  <si>
-    <t>Dismenorrea Secundaria</t>
-  </si>
-  <si>
-    <t>Orzuelo Y Otras Inflamaciones Profundas Del Parpado</t>
-  </si>
-  <si>
-    <t>Dolor En El Pecho, No Especificado</t>
-  </si>
-  <si>
-    <t>Embolia Y Trombosis De Arterias De Los Miembros Superiores</t>
-  </si>
-  <si>
-    <t>Otras Anormalidades Fecales</t>
-  </si>
-  <si>
-    <t>Otros Glaucomas</t>
-  </si>
-  <si>
-    <t>Fractura De La Clavicula</t>
-  </si>
-  <si>
-    <t>Otros Sintomas Y Signos Concernientes A La Alimentacion Y A La Ingestion De Liquidos</t>
-  </si>
-  <si>
-    <t>Otros Trastornos De La Absorcion Intestinal De Carbohidratos</t>
-  </si>
-  <si>
-    <t>Historia Personal De Otros Factores De Riesgo, No Clasificados En Otra Parte</t>
-  </si>
-  <si>
-    <t>Otros Trastornos Especificados No Inflamatorios De La Vagina</t>
-  </si>
-  <si>
-    <t>Otros Trastornos Inflamatorios Del Pene</t>
-  </si>
-  <si>
-    <t>Enfermedad De Parkinson</t>
-  </si>
-  <si>
     <t>Rinitis Alergica, No Especificada</t>
   </si>
   <si>
-    <t>Tendinitis Aquiliana</t>
-  </si>
-  <si>
-    <t>Anormalidades De Los Leucocitos, No Clasificadas En Otra Parte</t>
-  </si>
-  <si>
-    <t>Trastorno Del Ojo Y Sus Anexos, No Especificado</t>
-  </si>
-  <si>
-    <t>Diarrea Funcional</t>
-  </si>
-  <si>
-    <t>Traumatismos Superficiales Multiples De La Cabeza</t>
-  </si>
-  <si>
     <t>Flatulencia Y Afecciones Afines</t>
   </si>
   <si>
-    <t>Tumor De Comportamiento Incierto O Desconocido Del Labio, De La Cavidad Bucal Y De La Faringe</t>
-  </si>
-  <si>
-    <t>Conjuntivitis En Otras Enfermedades Clasificadas En Otra Parte</t>
-  </si>
-  <si>
-    <t>Tumor Maligno De La Glandula Tiroides</t>
-  </si>
-  <si>
-    <t>Herida De La Muñeca Y De La Mano, Parte No Especificada</t>
-  </si>
-  <si>
-    <t>Tumor Maligno De La Prostata</t>
-  </si>
-  <si>
-    <t>Embarazo confirmado</t>
-  </si>
-  <si>
-    <t>Ulcera del miembro inferior, no clasificada en otra parte</t>
-  </si>
-  <si>
-    <t>Otras migrañas</t>
-  </si>
-  <si>
     <t>Otros Vertigos Perifericos</t>
   </si>
   <si>
@@ -406,13 +262,202 @@
     <t>Herpes Zoster Sin Complicaciones</t>
   </si>
   <si>
-    <t>Alergia No Especificada</t>
-  </si>
-  <si>
     <t>Otros Dolores Abdominales Y Los No Especificados</t>
   </si>
   <si>
     <t>Otras Enteritis Virales</t>
+  </si>
+  <si>
+    <t>Nausea Y Vomito</t>
+  </si>
+  <si>
+    <t>Nausea y vomito</t>
+  </si>
+  <si>
+    <t>(Osteo)artrosis Primaria Generalizada</t>
+  </si>
+  <si>
+    <t>Necesidad De Inmunizacion Contra Covid-19, No Especificada</t>
+  </si>
+  <si>
+    <t>Otalgia</t>
+  </si>
+  <si>
+    <t>Urticaria Alergica</t>
+  </si>
+  <si>
+    <t>Otitis Media, No Especificada</t>
+  </si>
+  <si>
+    <t>Calambres Y Espasmos</t>
+  </si>
+  <si>
+    <t>Otras Cistitis</t>
+  </si>
+  <si>
+    <t>Cefalea</t>
+  </si>
+  <si>
+    <t>Otras Colitis Ulcerativas</t>
+  </si>
+  <si>
+    <t>Otras conjuntivitis agudas</t>
+  </si>
+  <si>
+    <t>Otras Miopatias Especificadas</t>
+  </si>
+  <si>
+    <t>Contusion Del Codo</t>
+  </si>
+  <si>
+    <t>Otras urticarias</t>
+  </si>
+  <si>
+    <t>Dolor En Articulacion</t>
+  </si>
+  <si>
+    <t>Otros Dolores En El Pecho</t>
+  </si>
+  <si>
+    <t>Otros Sindromes Vasculares Encefalicos En Enfermedades Cerebrovasculares (I60-i67†)</t>
+  </si>
+  <si>
+    <t>Otros Trastornos Especificados De La Nariz Y De Los Senos Paranasales</t>
+  </si>
+  <si>
+    <t>Herida De Otras Partes De La Cabeza</t>
+  </si>
+  <si>
+    <t>Infeccion Aguda De Las Vias Respiratorias Superiores, No Especificada</t>
+  </si>
+  <si>
+    <t>Palpitaciones</t>
+  </si>
+  <si>
+    <t>Migraña Con Aura [Migraña Clasica]</t>
+  </si>
+  <si>
+    <t>Poliartrosis, No Especificada</t>
+  </si>
+  <si>
+    <t>Absceso Cutaneo, Furunculo Y Antrax De Sitio No Especificado</t>
+  </si>
+  <si>
+    <t>Problemas Relacionados Con Otros Hechos Estresantes Que Afectan A La Familia Y Al Hogar</t>
+  </si>
+  <si>
+    <t>Asma, no especificada</t>
+  </si>
+  <si>
+    <t>Cefalea Debida A Tension</t>
+  </si>
+  <si>
+    <t>Quemadura de la muñeca y de la mano, grado no especificado</t>
+  </si>
+  <si>
+    <t>Contractura muscular</t>
+  </si>
+  <si>
+    <t>Radiculopatia</t>
+  </si>
+  <si>
+    <t>Dolor De Garganta</t>
+  </si>
+  <si>
+    <t>Eritema En Otras Enfermedades Clasificadas En Otra Parte</t>
+  </si>
+  <si>
+    <t>Sinusitis Aguda, No Especificada</t>
+  </si>
+  <si>
+    <t>Taquicardia, No Especificada</t>
+  </si>
+  <si>
+    <t>Mononeuropatia Del Miembro Inferior, Sin Otra Especificacion</t>
+  </si>
+  <si>
+    <t>CANCELADA</t>
+  </si>
+  <si>
+    <t>Trastorno Articular, No Especificado</t>
+  </si>
+  <si>
+    <t>Disenteria Amebiana Aguda</t>
+  </si>
+  <si>
+    <t>Trastorno De Disco Lumbar Y Otros, Con Radiculopatia</t>
+  </si>
+  <si>
+    <t>Fractura De Vertebra Lumbar</t>
+  </si>
+  <si>
+    <t>Trastorno De Los Tejidos Blandos, No Especificado</t>
+  </si>
+  <si>
+    <t>Trastorno Depresivo Recurrente, Episodio Moderado Presente</t>
+  </si>
+  <si>
+    <t>Embarazo Confirmado</t>
+  </si>
+  <si>
+    <t>Trastornos Del Inicio Y Del Mantenimiento Del Sueño [Insomnios]</t>
+  </si>
+  <si>
+    <t>Lumbago No Especificado</t>
+  </si>
+  <si>
+    <t>Traumatismos superficiales que afectan el torax con el abdomen, la region lumbosacra y la pelvis</t>
+  </si>
+  <si>
+    <t>Amigdalitis aguda, no especificada</t>
+  </si>
+  <si>
+    <t>Contusion De Otras Partes De La Muñeca Y De La Mano</t>
+  </si>
+  <si>
+    <t>Dolor Agudo</t>
+  </si>
+  <si>
+    <t>Obesidad, No Especificada</t>
+  </si>
+  <si>
+    <t>Otros Prurigos</t>
+  </si>
+  <si>
+    <t>Otras rinitis alergicas</t>
+  </si>
+  <si>
+    <t>Sindrome Del Colon Irritable Sin Diarrea</t>
+  </si>
+  <si>
+    <t>Mordedura O Ataque De Perro: Lugar No Especificado</t>
+  </si>
+  <si>
+    <t>Dismenorrea, no especificada</t>
+  </si>
+  <si>
+    <t>Examen medico general</t>
+  </si>
+  <si>
+    <t>Otras Dorsalgias</t>
+  </si>
+  <si>
+    <t>Fiebre, No Especificada</t>
+  </si>
+  <si>
+    <t>Cervicalgia</t>
+  </si>
+  <si>
+    <t>Infeccion de vias urinarias, sitio no especificado</t>
+  </si>
+  <si>
+    <t>Hipotiroidismo, No Especificado</t>
+  </si>
+  <si>
+    <t>Otras sinusitis agudas</t>
+  </si>
+  <si>
+    <t>Rinofaringitis aguda (resfriado comun)</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3020CE-17AC-4DCC-B855-C05855A06DE1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1521,13 +1566,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B2">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1539,13 +1584,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B3CEF-2446-471D-B777-AD2F1CBAD8AA}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,40 +1606,40 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
       </c>
       <c r="C4">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -1605,24 +1650,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>8761</v>
+        <v>9345</v>
       </c>
     </row>
   </sheetData>
@@ -1661,30 +1706,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>508</v>
+        <v>711</v>
       </c>
       <c r="D2">
-        <v>517</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="D3">
-        <v>282</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1697,7 +1742,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,24 +1765,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C2">
-        <v>5362</v>
+        <v>5907</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>16712</v>
+        <v>21837</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1795,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1818,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1784,7 +1829,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -1795,7 +1840,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -1806,7 +1851,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
@@ -1817,7 +1862,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -1828,7 +1873,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -1839,7 +1884,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -1850,7 +1895,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -1861,7 +1906,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1872,7 +1917,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1883,7 +1928,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1894,7 +1939,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1925,7 +1970,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,13 +1988,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B2">
-        <v>5092</v>
+        <v>7610</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -1984,13 +2029,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2006,7 +2051,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,62 +2072,62 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3">
-        <v>528</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4">
-        <v>1964</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5">
-        <v>1660</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6">
-        <v>779</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -2093,101 +2138,101 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9">
-        <v>1262</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13">
-        <v>927</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -2236,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F647B8A-3E71-4CDC-B280-1882725A6ACD}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,10 +2307,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2273,10 +2318,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2284,10 +2329,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2295,10 +2340,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2306,10 +2351,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2317,10 +2362,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2328,10 +2373,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2339,10 +2384,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2350,10 +2395,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2361,10 +2406,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2372,10 +2417,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2383,10 +2428,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2394,10 +2439,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2405,10 +2450,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2416,10 +2461,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2427,10 +2472,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2438,10 +2483,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2449,10 +2494,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2460,10 +2505,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2471,10 +2516,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2482,10 +2527,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2493,10 +2538,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2504,10 +2549,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2515,10 +2560,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2526,10 +2571,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2537,10 +2582,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2548,10 +2593,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2559,10 +2604,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2570,10 +2615,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2581,10 +2626,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2592,10 +2637,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2603,10 +2648,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2614,10 +2659,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2625,10 +2670,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2636,10 +2681,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2647,10 +2692,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2658,10 +2703,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2669,10 +2714,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2680,10 +2725,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2691,10 +2736,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2702,10 +2747,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2713,10 +2758,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2724,10 +2769,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2735,10 +2780,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2746,10 +2791,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2757,10 +2802,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2768,295 +2813,454 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="C72">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="C73">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
+      <c r="A74" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+      <c r="A75" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3244,9 +3448,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A2A9705-881A-4ACF-9284-46D7E8AD26FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA7F1ADE-60FF-4FF7-B7AE-6C42EDA3F27F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F710495B-F334-4E16-88DF-919CAAFDE0E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8BAE2E-7F7B-43F4-AECB-2594C8813A32}"/>
 </file>